--- a/diplo/pqr_v4/PQR.xlsx
+++ b/diplo/pqr_v4/PQR.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1886" uniqueCount="618">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2106" uniqueCount="579">
   <si>
     <t>Ville</t>
   </si>
@@ -34,9 +34,6 @@
     <t>9,11,12,31,32,34,46,47,65,66</t>
   </si>
   <si>
-    <t>Alain Paga</t>
-  </si>
-  <si>
     <t>http://www.lepetitjournal.net/Lot-et-Garonne/1-Accueil.htm</t>
   </si>
   <si>
@@ -52,9 +49,6 @@
     <t>19,23,24,36,87</t>
   </si>
   <si>
-    <t>antilibéral - PCF - indépendant</t>
-  </si>
-  <si>
     <t>http://www.l-echo.info/</t>
   </si>
   <si>
@@ -70,9 +64,6 @@
     <t>L'agefi hebdo (web)</t>
   </si>
   <si>
-    <t>Artemis</t>
-  </si>
-  <si>
     <t>La Provence</t>
   </si>
   <si>
@@ -115,9 +106,6 @@
     <t>L'Opinion</t>
   </si>
   <si>
-    <t>Bey medias SAS</t>
-  </si>
-  <si>
     <t>Le Lorrain</t>
   </si>
   <si>
@@ -127,9 +115,6 @@
     <t>cesse</t>
   </si>
   <si>
-    <t>Catholique</t>
-  </si>
-  <si>
     <t>http://presselocaleancienne.bnf.fr/ark:/12148/cb32809323p</t>
   </si>
   <si>
@@ -145,9 +130,6 @@
     <t>Présent (1982)</t>
   </si>
   <si>
-    <t>Catholique traditionnalistes</t>
-  </si>
-  <si>
     <t>Le Berry républicain</t>
   </si>
   <si>
@@ -247,9 +229,6 @@
     <t>Vannes</t>
   </si>
   <si>
-    <t>CGT</t>
-  </si>
-  <si>
     <t>Nouveau Rhin français</t>
   </si>
   <si>
@@ -259,18 +238,12 @@
     <t>fusion</t>
   </si>
   <si>
-    <t>Chrétien</t>
-  </si>
-  <si>
     <t>http://www.worldcat.org/title/nouveau-rhin-francais-grand-quotidien-chretien-republicain-du-haut-rhin/oclc/472483113</t>
   </si>
   <si>
     <t>Le Nouvelliste du Morbihan</t>
   </si>
   <si>
-    <t>Collaboration_Vichy</t>
-  </si>
-  <si>
     <t>Le Matin</t>
   </si>
   <si>
@@ -280,18 +253,12 @@
     <t>Combat</t>
   </si>
   <si>
-    <t>Combat_CNR</t>
-  </si>
-  <si>
     <t>Voix nouvelles</t>
   </si>
   <si>
     <t>Perigueux</t>
   </si>
   <si>
-    <t>Comité de la libération de la dordogne</t>
-  </si>
-  <si>
     <t>archives_24</t>
   </si>
   <si>
@@ -301,18 +268,12 @@
     <t>Caen</t>
   </si>
   <si>
-    <t>Comité de Libération</t>
-  </si>
-  <si>
     <t>archives_14</t>
   </si>
   <si>
     <t>Le Figaro</t>
   </si>
   <si>
-    <t>Dassault</t>
-  </si>
-  <si>
     <t>L'Alsace</t>
   </si>
   <si>
@@ -418,9 +379,6 @@
     <t>Franc-tireur</t>
   </si>
   <si>
-    <t>Franc Tireur</t>
-  </si>
-  <si>
     <t>Paris presse</t>
   </si>
   <si>
@@ -430,36 +388,21 @@
     <t>Le Front national</t>
   </si>
   <si>
-    <t>Front national (Résistance)</t>
-  </si>
-  <si>
     <t>Le méridional</t>
   </si>
   <si>
-    <t>Gauche</t>
-  </si>
-  <si>
     <t>La France libre</t>
   </si>
   <si>
-    <t>gauche</t>
-  </si>
-  <si>
     <t>L'Alsace libérée</t>
   </si>
   <si>
-    <t>Gaulliste</t>
-  </si>
-  <si>
     <t>https://strasbourg2gm.wordpress.com/le-premier-numero-de-lalsace-liberee/</t>
   </si>
   <si>
     <t>La Croix</t>
   </si>
   <si>
-    <t>Groupe Bayard Presse</t>
-  </si>
-  <si>
     <t>Centre presse</t>
   </si>
   <si>
@@ -469,9 +412,6 @@
     <t>Centre presse Vienne</t>
   </si>
   <si>
-    <t>groupe Nouvelle république</t>
-  </si>
-  <si>
     <t>http://www.centre-presse.fr/</t>
   </si>
   <si>
@@ -487,9 +427,6 @@
     <t>22,29,56</t>
   </si>
   <si>
-    <t>Groupe Télégramme</t>
-  </si>
-  <si>
     <t>http://www.letelegramme.fr/</t>
   </si>
   <si>
@@ -499,9 +436,6 @@
     <t>Lens</t>
   </si>
   <si>
-    <t>Journal des mineurs polonais</t>
-  </si>
-  <si>
     <t>1940-1944</t>
   </si>
   <si>
@@ -511,9 +445,6 @@
     <t>La France du Centre</t>
   </si>
   <si>
-    <t>Journal Républicain</t>
-  </si>
-  <si>
     <t>archives_45_http://presselocaleancienne.bnf.fr/ark:/12148/cb32777600n</t>
   </si>
   <si>
@@ -589,9 +520,6 @@
     <t>Besancon</t>
   </si>
   <si>
-    <t>La république de l'Est</t>
-  </si>
-  <si>
     <t>http://presselocaleancienne.bnf.fr/ark:/12148/cb32763706t</t>
   </si>
   <si>
@@ -601,9 +529,6 @@
     <t>Le Monde</t>
   </si>
   <si>
-    <t>Le Monde SA</t>
-  </si>
-  <si>
     <t>La Haute-Marne  libérée</t>
   </si>
   <si>
@@ -613,18 +538,12 @@
     <t>Journal de la Haute-Marne</t>
   </si>
   <si>
-    <t>L'Est républicain(50%) - considéré comme n'étant pas propriété du groupe EBRA</t>
-  </si>
-  <si>
     <t>http://www.jhm.fr/</t>
   </si>
   <si>
     <t>Libération soir</t>
   </si>
   <si>
-    <t>Libération en France occupée</t>
-  </si>
-  <si>
     <t>Aujourd'hui en France</t>
   </si>
   <si>
@@ -655,18 +574,12 @@
     <t>4,5,6,7,13,26,30,38,42,69,73,74,84</t>
   </si>
   <si>
-    <t>MLN, PCF</t>
-  </si>
-  <si>
     <t>archives_38</t>
   </si>
   <si>
     <t>Centre éclair soir</t>
   </si>
   <si>
-    <t>MNL</t>
-  </si>
-  <si>
     <t>http://matfanus.blogspot.fr/2012/05/la-presse-tours-avant-la-nr.html</t>
   </si>
   <si>
@@ -1123,9 +1036,6 @@
     <t>42,44,56,85</t>
   </si>
   <si>
-    <t>archives_44</t>
-  </si>
-  <si>
     <t>La Presse du Calvados</t>
   </si>
   <si>
@@ -1171,9 +1081,6 @@
     <t>Rennes</t>
   </si>
   <si>
-    <t>Organe de la démocratie de l'ouest</t>
-  </si>
-  <si>
     <t>archives_35</t>
   </si>
   <si>
@@ -1189,9 +1096,6 @@
     <t>Résistance républicaine</t>
   </si>
   <si>
-    <t>Organe du Comité de la libération nationale</t>
-  </si>
-  <si>
     <t>archives_64</t>
   </si>
   <si>
@@ -1267,9 +1171,6 @@
     <t>Lyon libre</t>
   </si>
   <si>
-    <t>Organe de l'autonomie municipale et départementale</t>
-  </si>
-  <si>
     <t>http://presselocaleancienne.bnf.fr/ark:/12148/cb32810067h</t>
   </si>
   <si>
@@ -1279,9 +1180,6 @@
     <t>Anglet</t>
   </si>
   <si>
-    <t>Organe officiel régional de « ceux de la libération vengeance »</t>
-  </si>
-  <si>
     <t>L'étincelle</t>
   </si>
   <si>
@@ -1309,33 +1207,21 @@
     <t>Le courrier de Metz</t>
   </si>
   <si>
-    <t>Progrès démocratique lorrain</t>
-  </si>
-  <si>
     <t>http://presselocaleancienne.bnf.fr/ark:/12148/cb327506743</t>
   </si>
   <si>
     <t>4,5,6,9,11,12,13,30,31,32,34,46,48,65,66,81,82,83,84</t>
   </si>
   <si>
-    <t>Résistance communiste</t>
-  </si>
-  <si>
     <t>http://www.lamarseillaise.fr/</t>
   </si>
   <si>
     <t>Le Matin de Paris</t>
   </si>
   <si>
-    <t>Resistance française</t>
-  </si>
-  <si>
     <t>Libre Poitous</t>
   </si>
   <si>
-    <t>Résistance française</t>
-  </si>
-  <si>
     <t>http://gallica.bnf.fr/ark:/12148/cb344213003/date</t>
   </si>
   <si>
@@ -1417,9 +1303,6 @@
     <t>Le Bordeaux matin</t>
   </si>
   <si>
-    <t>SFIO</t>
-  </si>
-  <si>
     <t>http://catalogue.bnf.fr/ark:/12148/cb32715103k</t>
   </si>
   <si>
@@ -1450,9 +1333,6 @@
     <t>Libération</t>
   </si>
   <si>
-    <t>SFR</t>
-  </si>
-  <si>
     <t>Le courrier de l'ouest</t>
   </si>
   <si>
@@ -1657,18 +1537,9 @@
     <t>Titre en 1945</t>
   </si>
   <si>
-    <t>Changement de nom - Fusion(true/false) - Nouveau nom</t>
-  </si>
-  <si>
-    <t>Date du changement de nom</t>
-  </si>
-  <si>
     <t>source</t>
   </si>
   <si>
-    <t>Période de cessation</t>
-  </si>
-  <si>
     <t>false,Liberté – Le Bonhomme Libre</t>
   </si>
   <si>
@@ -1780,9 +1651,6 @@
     <t>true,Le Figaro</t>
   </si>
   <si>
-    <t>appartenance_affiliation_edition</t>
-  </si>
-  <si>
     <t>date_groupe</t>
   </si>
   <si>
@@ -1868,6 +1736,21 @@
   </si>
   <si>
     <t>Chalon_Champagne</t>
+  </si>
+  <si>
+    <t>change_fusion_nom</t>
+  </si>
+  <si>
+    <t>change_date</t>
+  </si>
+  <si>
+    <t>periode_cessation</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>groupe</t>
   </si>
 </sst>
 </file>
@@ -2692,19 +2575,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N208"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
+    <col min="6" max="6" width="14.7109375" customWidth="1"/>
+    <col min="7" max="7" width="18.5703125" customWidth="1"/>
     <col min="8" max="8" width="21.42578125" customWidth="1"/>
     <col min="11" max="11" width="23.140625" customWidth="1"/>
+    <col min="12" max="12" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.75" customHeight="1">
+    <row r="1" spans="1:14" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>546</v>
+        <v>506</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -2713,37 +2599,37 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>544</v>
+        <v>504</v>
       </c>
       <c r="E1" t="s">
-        <v>543</v>
+        <v>503</v>
       </c>
       <c r="F1" t="s">
+        <v>505</v>
+      </c>
+      <c r="G1" t="s">
+        <v>502</v>
+      </c>
+      <c r="H1" t="s">
+        <v>574</v>
+      </c>
+      <c r="I1" t="s">
+        <v>575</v>
+      </c>
+      <c r="J1" t="s">
+        <v>578</v>
+      </c>
+      <c r="K1" t="s">
         <v>545</v>
       </c>
-      <c r="G1" t="s">
-        <v>542</v>
-      </c>
-      <c r="H1" t="s">
-        <v>547</v>
-      </c>
-      <c r="I1" t="s">
-        <v>548</v>
-      </c>
-      <c r="J1" t="s">
-        <v>588</v>
-      </c>
-      <c r="K1" t="s">
-        <v>589</v>
-      </c>
       <c r="L1" t="s">
-        <v>550</v>
+        <v>576</v>
       </c>
       <c r="M1" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -2772,21 +2658,24 @@
         <v>4</v>
       </c>
       <c r="J2" t="s">
+        <v>577</v>
+      </c>
+      <c r="L2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M2" t="s">
         <v>6</v>
       </c>
-      <c r="L2" t="s">
-        <v>4</v>
-      </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="1" t="s">
+      <c r="B3" t="s">
         <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
@@ -2795,45 +2684,48 @@
         <v>2016</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F3">
         <v>1943</v>
       </c>
       <c r="G3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" t="s">
+        <v>577</v>
+      </c>
+      <c r="L3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M3" t="s">
         <v>11</v>
       </c>
-      <c r="H3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="N3" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M3" t="s">
+      <c r="B4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" s="1" t="s">
+      <c r="C4" t="s">
         <v>14</v>
-      </c>
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" t="s">
-        <v>16</v>
       </c>
       <c r="D4">
         <v>2016</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F4">
         <v>1911</v>
@@ -2842,24 +2734,27 @@
         <v>4</v>
       </c>
       <c r="H4" t="s">
-        <v>590</v>
+        <v>546</v>
       </c>
       <c r="I4">
         <v>2005</v>
       </c>
       <c r="J4" t="s">
-        <v>18</v>
+        <v>577</v>
       </c>
       <c r="L4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
@@ -2874,16 +2769,16 @@
         <v>1997</v>
       </c>
       <c r="G5" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H5" t="s">
-        <v>591</v>
+        <v>547</v>
       </c>
       <c r="I5">
         <v>1997</v>
       </c>
       <c r="J5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="K5">
         <v>2012</v>
@@ -2892,15 +2787,18 @@
         <v>4</v>
       </c>
       <c r="M5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>20</v>
+      </c>
+      <c r="N5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -2909,13 +2807,13 @@
         <v>2016</v>
       </c>
       <c r="E6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F6">
         <v>1944</v>
       </c>
       <c r="G6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="H6" t="s">
         <v>4</v>
@@ -2924,7 +2822,7 @@
         <v>4</v>
       </c>
       <c r="J6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="K6">
         <v>2012</v>
@@ -2933,15 +2831,18 @@
         <v>4</v>
       </c>
       <c r="M6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>24</v>
+      </c>
+      <c r="N6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
@@ -2950,7 +2851,7 @@
         <v>2016</v>
       </c>
       <c r="E7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F7">
         <v>1944</v>
@@ -2965,7 +2866,7 @@
         <v>4</v>
       </c>
       <c r="J7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="K7">
         <v>2012</v>
@@ -2974,15 +2875,18 @@
         <v>4</v>
       </c>
       <c r="M7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>27</v>
+      </c>
+      <c r="N7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
@@ -3006,7 +2910,7 @@
         <v>4</v>
       </c>
       <c r="J8" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="K8">
         <v>2012</v>
@@ -3014,13 +2918,16 @@
       <c r="L8" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="N8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
@@ -3029,7 +2936,7 @@
         <v>2016</v>
       </c>
       <c r="E9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F9">
         <v>2013</v>
@@ -3044,21 +2951,24 @@
         <v>4</v>
       </c>
       <c r="J9" t="s">
-        <v>33</v>
+        <v>577</v>
       </c>
       <c r="L9" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B10" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D10">
         <v>1969</v>
@@ -3079,24 +2989,27 @@
         <v>4</v>
       </c>
       <c r="J10" t="s">
-        <v>37</v>
+        <v>577</v>
       </c>
       <c r="L10" t="s">
         <v>4</v>
       </c>
       <c r="M10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>33</v>
+      </c>
+      <c r="N10" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B11" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C11" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D11">
         <v>1986</v>
@@ -3108,7 +3021,7 @@
         <v>1986</v>
       </c>
       <c r="G11" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H11" t="s">
         <v>4</v>
@@ -3117,18 +3030,21 @@
         <v>4</v>
       </c>
       <c r="J11" t="s">
+        <v>577</v>
+      </c>
+      <c r="L11" t="s">
+        <v>4</v>
+      </c>
+      <c r="N11" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" t="s">
         <v>37</v>
       </c>
-      <c r="L11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="A12" t="s">
-        <v>42</v>
-      </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C12" t="s">
         <v>4</v>
@@ -3137,7 +3053,7 @@
         <v>2016</v>
       </c>
       <c r="E12" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F12">
         <v>1982</v>
@@ -3152,18 +3068,21 @@
         <v>4</v>
       </c>
       <c r="J12" t="s">
-        <v>43</v>
+        <v>577</v>
       </c>
       <c r="L12" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B13" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
@@ -3172,7 +3091,7 @@
         <v>2016</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="F13">
         <v>1944</v>
@@ -3187,7 +3106,7 @@
         <v>4</v>
       </c>
       <c r="J13" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="K13">
         <v>1982</v>
@@ -3196,15 +3115,18 @@
         <v>4</v>
       </c>
       <c r="M13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>41</v>
+      </c>
+      <c r="N13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
       <c r="A14" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B14" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
@@ -3213,7 +3135,7 @@
         <v>2016</v>
       </c>
       <c r="E14" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="F14">
         <v>1922</v>
@@ -3228,7 +3150,7 @@
         <v>4</v>
       </c>
       <c r="J14" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="K14">
         <v>2010</v>
@@ -3237,15 +3159,18 @@
         <v>4</v>
       </c>
       <c r="M14" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>44</v>
+      </c>
+      <c r="N14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
       <c r="A15" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B15" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
@@ -3254,7 +3179,7 @@
         <v>2016</v>
       </c>
       <c r="E15" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="G15">
         <v>43</v>
@@ -3266,7 +3191,7 @@
         <v>4</v>
       </c>
       <c r="J15" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="K15">
         <v>2013</v>
@@ -3275,15 +3200,18 @@
         <v>4</v>
       </c>
       <c r="M15" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>47</v>
+      </c>
+      <c r="N15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
       <c r="A16" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B16" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C16" t="s">
         <v>4</v>
@@ -3292,7 +3220,7 @@
         <v>2016</v>
       </c>
       <c r="E16" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F16">
         <v>1944</v>
@@ -3307,7 +3235,7 @@
         <v>4</v>
       </c>
       <c r="J16" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="K16">
         <v>1972</v>
@@ -3316,15 +3244,18 @@
         <v>4</v>
       </c>
       <c r="M16" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>50</v>
+      </c>
+      <c r="N16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B17" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C17" t="s">
         <v>4</v>
@@ -3333,13 +3264,13 @@
         <v>2016</v>
       </c>
       <c r="E17" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F17">
         <v>1919</v>
       </c>
       <c r="G17" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="H17" t="s">
         <v>4</v>
@@ -3348,7 +3279,7 @@
         <v>4</v>
       </c>
       <c r="J17" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="K17">
         <v>1972</v>
@@ -3357,15 +3288,18 @@
         <v>4</v>
       </c>
       <c r="M17" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>54</v>
+      </c>
+      <c r="N17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B18" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C18" t="s">
         <v>4</v>
@@ -3374,13 +3308,13 @@
         <v>2016</v>
       </c>
       <c r="E18" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F18">
         <v>1944</v>
       </c>
       <c r="G18" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="H18" t="s">
         <v>4</v>
@@ -3389,7 +3323,7 @@
         <v>4</v>
       </c>
       <c r="J18" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="K18">
         <v>2008</v>
@@ -3398,15 +3332,18 @@
         <v>4</v>
       </c>
       <c r="M18" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>58</v>
+      </c>
+      <c r="N18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
@@ -3415,13 +3352,13 @@
         <v>2016</v>
       </c>
       <c r="E19" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F19">
         <v>1905</v>
       </c>
       <c r="G19" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="H19" t="s">
         <v>4</v>
@@ -3430,7 +3367,7 @@
         <v>4</v>
       </c>
       <c r="J19" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="K19">
         <v>1972</v>
@@ -3439,15 +3376,18 @@
         <v>4</v>
       </c>
       <c r="M19" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>61</v>
+      </c>
+      <c r="N19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B20" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C20" t="s">
         <v>4</v>
@@ -3456,7 +3396,7 @@
         <v>2016</v>
       </c>
       <c r="E20" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F20">
         <v>1944</v>
@@ -3471,7 +3411,7 @@
         <v>4</v>
       </c>
       <c r="J20" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="K20">
         <v>2010</v>
@@ -3480,15 +3420,18 @@
         <v>4</v>
       </c>
       <c r="M20" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>64</v>
+      </c>
+      <c r="N20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B21" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C21" t="s">
         <v>4</v>
@@ -3497,13 +3440,13 @@
         <v>2016</v>
       </c>
       <c r="E21" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F21">
         <v>1944</v>
       </c>
       <c r="G21" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="H21" t="s">
         <v>4</v>
@@ -3512,7 +3455,7 @@
         <v>4</v>
       </c>
       <c r="J21" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="K21">
         <v>2010</v>
@@ -3521,18 +3464,21 @@
         <v>4</v>
       </c>
       <c r="M21" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>68</v>
+      </c>
+      <c r="N21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B22" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C22" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D22">
         <v>1995</v>
@@ -3547,27 +3493,30 @@
         <v>56</v>
       </c>
       <c r="H22" t="s">
-        <v>592</v>
+        <v>548</v>
       </c>
       <c r="I22">
         <v>1944</v>
       </c>
       <c r="J22" t="s">
-        <v>77</v>
+        <v>577</v>
       </c>
       <c r="L22" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="N22" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B23" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C23" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="D23">
         <v>1962</v>
@@ -3588,24 +3537,27 @@
         <v>4</v>
       </c>
       <c r="J23" t="s">
-        <v>81</v>
+        <v>577</v>
       </c>
       <c r="L23" t="s">
         <v>4</v>
       </c>
       <c r="M23" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>74</v>
+      </c>
+      <c r="N23" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="B24" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C24" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D24">
         <v>1944</v>
@@ -3626,21 +3578,24 @@
         <v>4</v>
       </c>
       <c r="J24" t="s">
-        <v>84</v>
+        <v>577</v>
       </c>
       <c r="L24" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="1:13">
+      <c r="N24" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="B25" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C25" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="D25">
         <v>1944</v>
@@ -3661,21 +3616,24 @@
         <v>4</v>
       </c>
       <c r="J25" t="s">
-        <v>84</v>
+        <v>577</v>
       </c>
       <c r="L25" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="26" spans="1:13">
+      <c r="N25" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
       <c r="A26" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="B26" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C26" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D26">
         <v>1974</v>
@@ -3696,21 +3654,24 @@
         <v>4</v>
       </c>
       <c r="J26" t="s">
-        <v>88</v>
+        <v>577</v>
       </c>
       <c r="L26" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
       <c r="A27" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="B27" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="C27" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D27">
         <v>1951</v>
@@ -3731,24 +3692,27 @@
         <v>4</v>
       </c>
       <c r="J27" t="s">
-        <v>91</v>
+        <v>577</v>
       </c>
       <c r="L27" t="s">
         <v>4</v>
       </c>
       <c r="M27" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>81</v>
+      </c>
+      <c r="N27" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
       <c r="A28" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="B28" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="C28" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="D28">
         <v>1994</v>
@@ -3763,27 +3727,30 @@
         <v>14</v>
       </c>
       <c r="H28" t="s">
-        <v>551</v>
+        <v>508</v>
       </c>
       <c r="I28">
         <v>1974</v>
       </c>
       <c r="J28" t="s">
-        <v>95</v>
+        <v>577</v>
       </c>
       <c r="L28" t="s">
         <v>4</v>
       </c>
       <c r="M28" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>84</v>
+      </c>
+      <c r="N28" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
       <c r="A29" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="B29" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C29" t="s">
         <v>4</v>
@@ -3792,7 +3759,7 @@
         <v>2016</v>
       </c>
       <c r="E29" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="F29">
         <v>1826</v>
@@ -3807,18 +3774,21 @@
         <v>4</v>
       </c>
       <c r="J29" t="s">
-        <v>98</v>
+        <v>577</v>
       </c>
       <c r="L29" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
       <c r="A30" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="B30" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="C30" t="s">
         <v>4</v>
@@ -3827,13 +3797,13 @@
         <v>2016</v>
       </c>
       <c r="E30" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="F30">
         <v>1944</v>
       </c>
       <c r="G30" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H30" t="s">
         <v>4</v>
@@ -3842,7 +3812,7 @@
         <v>4</v>
       </c>
       <c r="J30" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="K30">
         <v>2006</v>
@@ -3851,15 +3821,18 @@
         <v>4</v>
       </c>
       <c r="M30" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>89</v>
+      </c>
+      <c r="N30" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
       <c r="A31" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="B31" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="C31" t="s">
         <v>4</v>
@@ -3868,7 +3841,7 @@
         <v>2016</v>
       </c>
       <c r="E31" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="F31">
         <v>1868</v>
@@ -3883,7 +3856,7 @@
         <v>4</v>
       </c>
       <c r="J31" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="K31">
         <v>2006</v>
@@ -3892,15 +3865,18 @@
         <v>4</v>
       </c>
       <c r="M31" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>92</v>
+      </c>
+      <c r="N31" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
       <c r="A32" s="1" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="B32" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="C32" t="s">
         <v>4</v>
@@ -3909,7 +3885,7 @@
         <v>2016</v>
       </c>
       <c r="E32" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="F32">
         <v>1826</v>
@@ -3924,7 +3900,7 @@
         <v>4</v>
       </c>
       <c r="J32" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="K32">
         <v>2006</v>
@@ -3933,15 +3909,18 @@
         <v>4</v>
       </c>
       <c r="M32" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>96</v>
+      </c>
+      <c r="N32" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14">
       <c r="A33" s="1" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="B33" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="C33" t="s">
         <v>4</v>
@@ -3950,13 +3929,13 @@
         <v>2016</v>
       </c>
       <c r="E33" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="F33">
         <v>1945</v>
       </c>
       <c r="G33" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="H33" t="s">
         <v>4</v>
@@ -3965,7 +3944,7 @@
         <v>4</v>
       </c>
       <c r="J33" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="K33">
         <v>2006</v>
@@ -3974,15 +3953,18 @@
         <v>4</v>
       </c>
       <c r="M33" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
+        <v>100</v>
+      </c>
+      <c r="N33" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14">
       <c r="A34" s="1" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="B34" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="C34" t="s">
         <v>4</v>
@@ -3991,13 +3973,13 @@
         <v>2016</v>
       </c>
       <c r="E34" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="F34">
         <v>1889</v>
       </c>
       <c r="G34" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="H34" t="s">
         <v>4</v>
@@ -4006,7 +3988,7 @@
         <v>4</v>
       </c>
       <c r="J34" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="K34">
         <v>2010</v>
@@ -4015,15 +3997,18 @@
         <v>4</v>
       </c>
       <c r="M34" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13">
+        <v>104</v>
+      </c>
+      <c r="N34" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14">
       <c r="A35" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="B35" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="C35" t="s">
         <v>4</v>
@@ -4032,22 +4017,22 @@
         <v>2016</v>
       </c>
       <c r="E35" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="F35">
         <v>1945</v>
       </c>
       <c r="G35" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="H35" t="s">
-        <v>593</v>
+        <v>549</v>
       </c>
       <c r="I35">
         <v>2009</v>
       </c>
       <c r="J35" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="K35">
         <v>2006</v>
@@ -4056,15 +4041,18 @@
         <v>4</v>
       </c>
       <c r="M35" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>109</v>
+      </c>
+      <c r="N35" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14">
       <c r="A36" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="B36" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="C36" t="s">
         <v>4</v>
@@ -4073,13 +4061,13 @@
         <v>2016</v>
       </c>
       <c r="E36" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="F36">
         <v>1859</v>
       </c>
       <c r="G36" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="H36" t="s">
         <v>4</v>
@@ -4088,7 +4076,7 @@
         <v>4</v>
       </c>
       <c r="J36" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="K36">
         <v>2006</v>
@@ -4097,15 +4085,18 @@
         <v>4</v>
       </c>
       <c r="M36" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>113</v>
+      </c>
+      <c r="N36" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14">
       <c r="A37" s="1" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="B37" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C37" t="s">
         <v>4</v>
@@ -4114,13 +4105,13 @@
         <v>2016</v>
       </c>
       <c r="E37" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="F37">
         <v>1878</v>
       </c>
       <c r="G37" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H37" t="s">
         <v>4</v>
@@ -4129,7 +4120,7 @@
         <v>4</v>
       </c>
       <c r="J37" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="K37">
         <v>2012</v>
@@ -4138,15 +4129,18 @@
         <v>4</v>
       </c>
       <c r="M37" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>116</v>
+      </c>
+      <c r="N37" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14">
       <c r="A38" s="1" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="B38" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C38" t="s">
         <v>4</v>
@@ -4155,13 +4149,13 @@
         <v>2016</v>
       </c>
       <c r="E38" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="F38">
         <v>1919</v>
       </c>
       <c r="G38" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="H38" t="s">
         <v>4</v>
@@ -4170,7 +4164,7 @@
         <v>4</v>
       </c>
       <c r="J38" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="K38">
         <v>2006</v>
@@ -4179,18 +4173,21 @@
         <v>4</v>
       </c>
       <c r="M38" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>119</v>
+      </c>
+      <c r="N38" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14">
       <c r="A39" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="B39" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C39" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D39">
         <v>1972</v>
@@ -4205,27 +4202,30 @@
         <v>4</v>
       </c>
       <c r="H39" t="s">
-        <v>552</v>
+        <v>509</v>
       </c>
       <c r="I39">
         <v>1957</v>
       </c>
       <c r="J39" t="s">
-        <v>134</v>
+        <v>577</v>
       </c>
       <c r="L39" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14">
       <c r="A40" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="B40" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C40" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D40">
         <v>1970</v>
@@ -4240,27 +4240,30 @@
         <v>4</v>
       </c>
       <c r="H40" t="s">
-        <v>594</v>
+        <v>550</v>
       </c>
       <c r="I40">
         <v>1965</v>
       </c>
       <c r="J40" t="s">
-        <v>136</v>
+        <v>577</v>
       </c>
       <c r="L40" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="41" spans="1:13">
+      <c r="N40" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14">
       <c r="A41" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="B41" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C41" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D41">
         <v>1946</v>
@@ -4281,24 +4284,27 @@
         <v>4</v>
       </c>
       <c r="J41" t="s">
-        <v>138</v>
+        <v>577</v>
       </c>
       <c r="L41" t="s">
         <v>4</v>
       </c>
       <c r="M41" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
+        <v>89</v>
+      </c>
+      <c r="N41" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14">
       <c r="A42" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="B42" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C42" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="D42">
         <v>1997</v>
@@ -4310,33 +4316,36 @@
         <v>1946</v>
       </c>
       <c r="G42" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H42" t="s">
-        <v>595</v>
+        <v>551</v>
       </c>
       <c r="I42">
         <v>1997</v>
       </c>
       <c r="J42" t="s">
-        <v>140</v>
+        <v>577</v>
       </c>
       <c r="L42" t="s">
         <v>4</v>
       </c>
       <c r="M42" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13">
+        <v>20</v>
+      </c>
+      <c r="N42" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14">
       <c r="A43" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="B43" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C43" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D43">
         <v>1886</v>
@@ -4357,21 +4366,24 @@
         <v>4</v>
       </c>
       <c r="J43" t="s">
-        <v>142</v>
+        <v>577</v>
       </c>
       <c r="L43" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="1:13">
+      <c r="N43" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14">
       <c r="A44" s="1" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="B44" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C44" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D44">
         <v>1956</v>
@@ -4383,30 +4395,33 @@
         <v>1944</v>
       </c>
       <c r="G44" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H44" t="s">
-        <v>556</v>
+        <v>513</v>
       </c>
       <c r="I44">
         <v>1944</v>
       </c>
       <c r="J44" t="s">
-        <v>144</v>
+        <v>577</v>
       </c>
       <c r="L44" t="s">
         <v>4</v>
       </c>
       <c r="M44" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>127</v>
+      </c>
+      <c r="N44" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14">
       <c r="A45" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
       <c r="B45" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C45" t="s">
         <v>4</v>
@@ -4415,7 +4430,7 @@
         <v>2016</v>
       </c>
       <c r="E45" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
       <c r="F45">
         <v>1883</v>
@@ -4430,18 +4445,21 @@
         <v>4</v>
       </c>
       <c r="J45" t="s">
-        <v>147</v>
+        <v>577</v>
       </c>
       <c r="L45" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="1:13">
+      <c r="N45" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14">
       <c r="A46" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="B46" t="s">
-        <v>149</v>
+        <v>130</v>
       </c>
       <c r="C46" t="s">
         <v>4</v>
@@ -4450,7 +4468,7 @@
         <v>2016</v>
       </c>
       <c r="E46" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
       <c r="F46">
         <v>1958</v>
@@ -4465,21 +4483,24 @@
         <v>4</v>
       </c>
       <c r="J46" t="s">
-        <v>151</v>
+        <v>577</v>
       </c>
       <c r="L46" t="s">
         <v>4</v>
       </c>
       <c r="M46" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>132</v>
+      </c>
+      <c r="N46" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14">
       <c r="A47" s="1" t="s">
-        <v>153</v>
+        <v>133</v>
       </c>
       <c r="B47" t="s">
-        <v>154</v>
+        <v>134</v>
       </c>
       <c r="C47" t="s">
         <v>4</v>
@@ -4488,39 +4509,42 @@
         <v>2016</v>
       </c>
       <c r="E47" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="F47">
         <v>1944</v>
       </c>
       <c r="G47" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
       <c r="H47" t="s">
-        <v>596</v>
+        <v>552</v>
       </c>
       <c r="I47">
         <v>1947</v>
       </c>
       <c r="J47" t="s">
-        <v>157</v>
+        <v>577</v>
       </c>
       <c r="L47" t="s">
         <v>4</v>
       </c>
       <c r="M47" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>137</v>
+      </c>
+      <c r="N47" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14">
       <c r="A48" s="1" t="s">
-        <v>159</v>
+        <v>138</v>
       </c>
       <c r="B48" t="s">
-        <v>160</v>
+        <v>139</v>
       </c>
       <c r="C48" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D48">
         <v>1989</v>
@@ -4541,24 +4565,27 @@
         <v>4</v>
       </c>
       <c r="J48" t="s">
-        <v>161</v>
+        <v>577</v>
       </c>
       <c r="L48" t="s">
-        <v>162</v>
+        <v>140</v>
       </c>
       <c r="M48" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>141</v>
+      </c>
+      <c r="N48" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14">
       <c r="A49" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="B49" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C49" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D49">
         <v>1946</v>
@@ -4579,18 +4606,21 @@
         <v>4</v>
       </c>
       <c r="J49" t="s">
-        <v>165</v>
+        <v>577</v>
       </c>
       <c r="M49" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>143</v>
+      </c>
+      <c r="N49" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14">
       <c r="A50" s="1" t="s">
-        <v>167</v>
+        <v>144</v>
       </c>
       <c r="B50" t="s">
-        <v>168</v>
+        <v>145</v>
       </c>
       <c r="C50" t="s">
         <v>4</v>
@@ -4599,39 +4629,42 @@
         <v>2016</v>
       </c>
       <c r="E50" t="s">
-        <v>169</v>
+        <v>146</v>
       </c>
       <c r="F50">
         <v>1870</v>
       </c>
       <c r="G50" t="s">
-        <v>170</v>
+        <v>147</v>
       </c>
       <c r="H50" t="s">
-        <v>597</v>
+        <v>553</v>
       </c>
       <c r="I50">
         <v>1947</v>
       </c>
       <c r="J50" t="s">
-        <v>171</v>
+        <v>148</v>
       </c>
       <c r="K50">
         <v>1957</v>
       </c>
       <c r="L50" t="s">
-        <v>172</v>
+        <v>149</v>
       </c>
       <c r="M50" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>150</v>
+      </c>
+      <c r="N50" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14">
       <c r="A51" s="1" t="s">
-        <v>174</v>
+        <v>151</v>
       </c>
       <c r="B51" t="s">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="C51" t="s">
         <v>4</v>
@@ -4640,7 +4673,7 @@
         <v>2016</v>
       </c>
       <c r="E51" t="s">
-        <v>174</v>
+        <v>151</v>
       </c>
       <c r="F51">
         <v>1846</v>
@@ -4655,7 +4688,7 @@
         <v>4</v>
       </c>
       <c r="J51" t="s">
-        <v>171</v>
+        <v>148</v>
       </c>
       <c r="K51">
         <v>2015</v>
@@ -4664,15 +4697,18 @@
         <v>4</v>
       </c>
       <c r="M51" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>153</v>
+      </c>
+      <c r="N51" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14">
       <c r="A52" s="1" t="s">
-        <v>177</v>
+        <v>154</v>
       </c>
       <c r="B52" t="s">
-        <v>178</v>
+        <v>155</v>
       </c>
       <c r="C52" t="s">
         <v>4</v>
@@ -4681,7 +4717,7 @@
         <v>2016</v>
       </c>
       <c r="E52" t="s">
-        <v>179</v>
+        <v>156</v>
       </c>
       <c r="F52">
         <v>1914</v>
@@ -4690,13 +4726,13 @@
         <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>598</v>
+        <v>554</v>
       </c>
       <c r="I52">
         <v>2012</v>
       </c>
       <c r="J52" t="s">
-        <v>171</v>
+        <v>148</v>
       </c>
       <c r="K52">
         <v>1995</v>
@@ -4705,15 +4741,18 @@
         <v>4</v>
       </c>
       <c r="M52" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>157</v>
+      </c>
+      <c r="N52" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14">
       <c r="A53" s="1" t="s">
-        <v>181</v>
+        <v>158</v>
       </c>
       <c r="B53" t="s">
-        <v>182</v>
+        <v>159</v>
       </c>
       <c r="C53" t="s">
         <v>4</v>
@@ -4722,7 +4761,7 @@
         <v>2016</v>
       </c>
       <c r="E53" t="s">
-        <v>181</v>
+        <v>158</v>
       </c>
       <c r="F53">
         <v>1944</v>
@@ -4737,7 +4776,7 @@
         <v>4</v>
       </c>
       <c r="J53" t="s">
-        <v>171</v>
+        <v>148</v>
       </c>
       <c r="K53">
         <v>2015</v>
@@ -4746,15 +4785,18 @@
         <v>4</v>
       </c>
       <c r="M53" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>160</v>
+      </c>
+      <c r="N53" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14">
       <c r="A54" t="s">
-        <v>184</v>
+        <v>161</v>
       </c>
       <c r="B54" t="s">
-        <v>185</v>
+        <v>162</v>
       </c>
       <c r="C54" t="s">
         <v>4</v>
@@ -4763,13 +4805,13 @@
         <v>2016</v>
       </c>
       <c r="E54" t="s">
-        <v>186</v>
+        <v>163</v>
       </c>
       <c r="F54">
         <v>1944</v>
       </c>
       <c r="G54" t="s">
-        <v>187</v>
+        <v>164</v>
       </c>
       <c r="H54" t="s">
         <v>4</v>
@@ -4778,7 +4820,7 @@
         <v>4</v>
       </c>
       <c r="J54" t="s">
-        <v>171</v>
+        <v>148</v>
       </c>
       <c r="K54">
         <v>2015</v>
@@ -4787,18 +4829,21 @@
         <v>4</v>
       </c>
       <c r="M54" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>165</v>
+      </c>
+      <c r="N54" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14">
       <c r="A55" t="s">
-        <v>189</v>
+        <v>166</v>
       </c>
       <c r="B55" t="s">
-        <v>190</v>
+        <v>167</v>
       </c>
       <c r="C55" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="D55">
         <v>1939</v>
@@ -4819,24 +4864,27 @@
         <v>4</v>
       </c>
       <c r="J55" t="s">
-        <v>191</v>
+        <v>577</v>
       </c>
       <c r="L55" t="s">
         <v>4</v>
       </c>
       <c r="M55" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>168</v>
+      </c>
+      <c r="N55" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14">
       <c r="A56" t="s">
-        <v>193</v>
+        <v>169</v>
       </c>
       <c r="B56" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C56" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="D56">
         <v>1985</v>
@@ -4851,24 +4899,27 @@
         <v>4</v>
       </c>
       <c r="H56" t="s">
-        <v>587</v>
+        <v>544</v>
       </c>
       <c r="I56">
         <v>1985</v>
       </c>
       <c r="J56" t="s">
-        <v>97</v>
+        <v>577</v>
       </c>
       <c r="L56" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="57" spans="1:13">
+      <c r="N56" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14">
       <c r="A57" t="s">
-        <v>194</v>
+        <v>170</v>
       </c>
       <c r="B57" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C57" t="s">
         <v>4</v>
@@ -4877,7 +4928,7 @@
         <v>2016</v>
       </c>
       <c r="E57" t="s">
-        <v>194</v>
+        <v>170</v>
       </c>
       <c r="F57">
         <v>1944</v>
@@ -4892,18 +4943,21 @@
         <v>4</v>
       </c>
       <c r="J57" t="s">
-        <v>195</v>
+        <v>577</v>
       </c>
       <c r="L57" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="1:13">
+      <c r="N57" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14">
       <c r="A58" s="1" t="s">
-        <v>196</v>
+        <v>171</v>
       </c>
       <c r="B58" t="s">
-        <v>197</v>
+        <v>172</v>
       </c>
       <c r="C58" t="s">
         <v>4</v>
@@ -4912,7 +4966,7 @@
         <v>2016</v>
       </c>
       <c r="E58" t="s">
-        <v>198</v>
+        <v>173</v>
       </c>
       <c r="F58">
         <v>1944</v>
@@ -4921,30 +4975,33 @@
         <v>52</v>
       </c>
       <c r="H58" t="s">
-        <v>599</v>
+        <v>555</v>
       </c>
       <c r="I58">
         <v>1993</v>
       </c>
       <c r="J58" t="s">
-        <v>199</v>
+        <v>577</v>
       </c>
       <c r="L58" t="s">
         <v>4</v>
       </c>
       <c r="M58" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13">
+        <v>174</v>
+      </c>
+      <c r="N58" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14">
       <c r="A59" t="s">
-        <v>201</v>
+        <v>175</v>
       </c>
       <c r="B59" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C59" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D59">
         <v>1964</v>
@@ -4965,21 +5022,24 @@
         <v>4</v>
       </c>
       <c r="J59" t="s">
-        <v>202</v>
+        <v>577</v>
       </c>
       <c r="L59" t="s">
         <v>4</v>
       </c>
       <c r="M59" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>89</v>
+      </c>
+      <c r="N59" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14">
       <c r="A60" t="s">
-        <v>203</v>
+        <v>176</v>
       </c>
       <c r="B60" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C60" t="s">
         <v>4</v>
@@ -4988,7 +5048,7 @@
         <v>2016</v>
       </c>
       <c r="E60" t="s">
-        <v>203</v>
+        <v>176</v>
       </c>
       <c r="F60">
         <v>1944</v>
@@ -5003,7 +5063,7 @@
         <v>4</v>
       </c>
       <c r="J60" t="s">
-        <v>204</v>
+        <v>177</v>
       </c>
       <c r="K60">
         <v>2015</v>
@@ -5011,13 +5071,16 @@
       <c r="L60" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="1:13">
+      <c r="N60" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14">
       <c r="A61" s="1" t="s">
-        <v>205</v>
+        <v>178</v>
       </c>
       <c r="B61" t="s">
-        <v>206</v>
+        <v>179</v>
       </c>
       <c r="C61" t="s">
         <v>4</v>
@@ -5026,22 +5089,22 @@
         <v>2016</v>
       </c>
       <c r="E61" t="s">
-        <v>207</v>
+        <v>180</v>
       </c>
       <c r="F61">
         <v>1944</v>
       </c>
       <c r="G61" t="s">
-        <v>208</v>
+        <v>181</v>
       </c>
       <c r="H61" t="s">
-        <v>600</v>
+        <v>556</v>
       </c>
       <c r="I61">
         <v>1986</v>
       </c>
       <c r="J61" t="s">
-        <v>204</v>
+        <v>177</v>
       </c>
       <c r="K61">
         <v>2015</v>
@@ -5050,15 +5113,18 @@
         <v>4</v>
       </c>
       <c r="M61" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13">
+        <v>182</v>
+      </c>
+      <c r="N61" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14">
       <c r="A62" t="s">
-        <v>210</v>
+        <v>183</v>
       </c>
       <c r="B62" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C62" t="s">
         <v>4</v>
@@ -5067,7 +5133,7 @@
         <v>2016</v>
       </c>
       <c r="E62" t="s">
-        <v>210</v>
+        <v>183</v>
       </c>
       <c r="F62">
         <v>1908</v>
@@ -5082,7 +5148,7 @@
         <v>4</v>
       </c>
       <c r="J62" t="s">
-        <v>204</v>
+        <v>177</v>
       </c>
       <c r="K62">
         <v>2015</v>
@@ -5090,16 +5156,19 @@
       <c r="L62" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="1:13">
+      <c r="N62" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14">
       <c r="A63" t="s">
-        <v>211</v>
+        <v>184</v>
       </c>
       <c r="B63" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="C63" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D63">
         <v>1958</v>
@@ -5111,7 +5180,7 @@
         <v>1944</v>
       </c>
       <c r="G63" t="s">
-        <v>212</v>
+        <v>185</v>
       </c>
       <c r="H63" t="s">
         <v>4</v>
@@ -5120,24 +5189,27 @@
         <v>4</v>
       </c>
       <c r="J63" t="s">
-        <v>213</v>
+        <v>577</v>
       </c>
       <c r="L63" t="s">
         <v>4</v>
       </c>
       <c r="M63" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13">
+        <v>186</v>
+      </c>
+      <c r="N63" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14">
       <c r="A64" t="s">
-        <v>215</v>
+        <v>187</v>
       </c>
       <c r="B64" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C64" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D64">
         <v>1947</v>
@@ -5158,24 +5230,27 @@
         <v>4</v>
       </c>
       <c r="J64" t="s">
-        <v>216</v>
+        <v>577</v>
       </c>
       <c r="L64" t="s">
         <v>4</v>
       </c>
       <c r="M64" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13">
+        <v>188</v>
+      </c>
+      <c r="N64" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14">
       <c r="A65" t="s">
-        <v>218</v>
+        <v>189</v>
       </c>
       <c r="B65" t="s">
-        <v>219</v>
+        <v>190</v>
       </c>
       <c r="C65" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="D65">
         <v>1993</v>
@@ -5190,24 +5265,27 @@
         <v>59.62</v>
       </c>
       <c r="H65" t="s">
-        <v>553</v>
+        <v>510</v>
       </c>
       <c r="I65">
         <v>1993</v>
       </c>
       <c r="J65" t="s">
-        <v>4</v>
+        <v>577</v>
       </c>
       <c r="L65" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="66" spans="1:13">
+      <c r="N65" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14">
       <c r="A66" s="1" t="s">
-        <v>220</v>
+        <v>191</v>
       </c>
       <c r="B66" t="s">
-        <v>221</v>
+        <v>192</v>
       </c>
       <c r="C66" t="s">
         <v>4</v>
@@ -5216,7 +5294,7 @@
         <v>2016</v>
       </c>
       <c r="E66" t="s">
-        <v>181</v>
+        <v>158</v>
       </c>
       <c r="F66" t="s">
         <v>4</v>
@@ -5225,30 +5303,33 @@
         <v>12</v>
       </c>
       <c r="H66" t="s">
-        <v>601</v>
+        <v>557</v>
       </c>
       <c r="I66">
         <v>1958</v>
       </c>
       <c r="J66" t="s">
-        <v>4</v>
+        <v>577</v>
       </c>
       <c r="L66" t="s">
         <v>4</v>
       </c>
       <c r="M66" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13">
+        <v>193</v>
+      </c>
+      <c r="N66" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14">
       <c r="A67" s="1" t="s">
-        <v>223</v>
+        <v>194</v>
       </c>
       <c r="B67" t="s">
-        <v>182</v>
+        <v>159</v>
       </c>
       <c r="C67" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="D67">
         <v>1958</v>
@@ -5263,30 +5344,33 @@
         <v>12</v>
       </c>
       <c r="H67" t="s">
-        <v>602</v>
+        <v>558</v>
       </c>
       <c r="I67">
         <v>1958</v>
       </c>
       <c r="J67" t="s">
-        <v>4</v>
+        <v>577</v>
       </c>
       <c r="L67" t="s">
         <v>4</v>
       </c>
       <c r="M67" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13">
+        <v>160</v>
+      </c>
+      <c r="N67" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14">
       <c r="A68" t="s">
-        <v>224</v>
+        <v>195</v>
       </c>
       <c r="B68" t="s">
-        <v>225</v>
+        <v>196</v>
       </c>
       <c r="C68" t="s">
-        <v>226</v>
+        <v>197</v>
       </c>
       <c r="D68">
         <v>1944</v>
@@ -5307,24 +5391,27 @@
         <v>4</v>
       </c>
       <c r="J68" t="s">
-        <v>4</v>
+        <v>577</v>
       </c>
       <c r="L68" t="s">
         <v>4</v>
       </c>
       <c r="M68" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13">
+        <v>198</v>
+      </c>
+      <c r="N68" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14">
       <c r="A69" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="B69" t="s">
-        <v>229</v>
+        <v>200</v>
       </c>
       <c r="C69" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D69">
         <v>1912</v>
@@ -5345,24 +5432,27 @@
         <v>4</v>
       </c>
       <c r="J69" t="s">
-        <v>4</v>
+        <v>577</v>
       </c>
       <c r="L69" t="s">
         <v>4</v>
       </c>
       <c r="M69" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13">
+        <v>201</v>
+      </c>
+      <c r="N69" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14">
       <c r="A70" t="s">
-        <v>231</v>
+        <v>202</v>
       </c>
       <c r="B70" t="s">
-        <v>232</v>
+        <v>203</v>
       </c>
       <c r="C70" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D70">
         <v>1948</v>
@@ -5374,7 +5464,7 @@
         <v>1945</v>
       </c>
       <c r="G70" t="s">
-        <v>233</v>
+        <v>204</v>
       </c>
       <c r="H70" t="s">
         <v>4</v>
@@ -5383,24 +5473,27 @@
         <v>4</v>
       </c>
       <c r="J70" t="s">
-        <v>4</v>
+        <v>577</v>
       </c>
       <c r="L70" t="s">
         <v>4</v>
       </c>
       <c r="M70" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13">
+        <v>205</v>
+      </c>
+      <c r="N70" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14">
       <c r="A71" t="s">
-        <v>235</v>
+        <v>206</v>
       </c>
       <c r="B71" t="s">
-        <v>149</v>
+        <v>130</v>
       </c>
       <c r="C71" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D71">
         <v>1944</v>
@@ -5421,24 +5514,27 @@
         <v>4</v>
       </c>
       <c r="J71" t="s">
-        <v>4</v>
+        <v>577</v>
       </c>
       <c r="L71" t="s">
         <v>4</v>
       </c>
       <c r="M71" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13">
+        <v>207</v>
+      </c>
+      <c r="N71" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14">
       <c r="A72" s="1" t="s">
-        <v>237</v>
+        <v>208</v>
       </c>
       <c r="B72" t="s">
-        <v>149</v>
+        <v>130</v>
       </c>
       <c r="C72" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D72">
         <v>1944</v>
@@ -5453,30 +5549,33 @@
         <v>4</v>
       </c>
       <c r="H72" t="s">
-        <v>554</v>
+        <v>511</v>
       </c>
       <c r="I72">
         <v>1944</v>
       </c>
       <c r="J72" t="s">
-        <v>4</v>
+        <v>577</v>
       </c>
       <c r="L72" t="s">
         <v>4</v>
       </c>
       <c r="M72" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="73" spans="1:13">
+        <v>209</v>
+      </c>
+      <c r="N72" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14">
       <c r="A73" t="s">
-        <v>239</v>
+        <v>210</v>
       </c>
       <c r="B73" t="s">
-        <v>240</v>
+        <v>211</v>
       </c>
       <c r="C73" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D73">
         <v>1901</v>
@@ -5497,24 +5596,27 @@
         <v>4</v>
       </c>
       <c r="J73" t="s">
-        <v>4</v>
+        <v>577</v>
       </c>
       <c r="L73" t="s">
         <v>4</v>
       </c>
       <c r="M73" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13">
+        <v>519</v>
+      </c>
+      <c r="N73" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14">
       <c r="A74" t="s">
-        <v>241</v>
+        <v>212</v>
       </c>
       <c r="B74" t="s">
-        <v>242</v>
+        <v>213</v>
       </c>
       <c r="C74" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D74">
         <v>1952</v>
@@ -5532,27 +5634,30 @@
         <v>4</v>
       </c>
       <c r="I74" t="s">
-        <v>243</v>
+        <v>214</v>
       </c>
       <c r="J74" t="s">
-        <v>4</v>
+        <v>577</v>
       </c>
       <c r="L74" t="s">
         <v>4</v>
       </c>
       <c r="M74" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="75" spans="1:13">
+        <v>215</v>
+      </c>
+      <c r="N74" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14">
       <c r="A75" t="s">
-        <v>245</v>
+        <v>216</v>
       </c>
       <c r="B75" t="s">
-        <v>246</v>
+        <v>217</v>
       </c>
       <c r="C75" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D75">
         <v>1945</v>
@@ -5573,24 +5678,27 @@
         <v>4</v>
       </c>
       <c r="J75" t="s">
-        <v>4</v>
+        <v>577</v>
       </c>
       <c r="L75" t="s">
         <v>4</v>
       </c>
       <c r="M75" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="76" spans="1:13">
+        <v>520</v>
+      </c>
+      <c r="N75" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14">
       <c r="A76" s="1" t="s">
-        <v>247</v>
+        <v>218</v>
       </c>
       <c r="B76" t="s">
-        <v>246</v>
+        <v>217</v>
       </c>
       <c r="C76" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D76">
         <v>1944</v>
@@ -5605,30 +5713,33 @@
         <v>15</v>
       </c>
       <c r="H76" t="s">
-        <v>603</v>
+        <v>559</v>
       </c>
       <c r="I76">
         <v>1944</v>
       </c>
       <c r="J76" t="s">
-        <v>4</v>
+        <v>577</v>
       </c>
       <c r="L76" t="s">
         <v>4</v>
       </c>
       <c r="M76" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13">
+        <v>521</v>
+      </c>
+      <c r="N76" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14">
       <c r="A77" s="1" t="s">
-        <v>248</v>
+        <v>219</v>
       </c>
       <c r="B77" t="s">
-        <v>249</v>
+        <v>220</v>
       </c>
       <c r="C77" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D77">
         <v>1968</v>
@@ -5643,30 +5754,33 @@
         <v>3.23</v>
       </c>
       <c r="H77" t="s">
-        <v>555</v>
+        <v>512</v>
       </c>
       <c r="I77">
         <v>1954</v>
       </c>
       <c r="J77" t="s">
-        <v>4</v>
+        <v>577</v>
       </c>
       <c r="L77" t="s">
         <v>4</v>
       </c>
       <c r="M77" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="78" spans="1:13">
+        <v>221</v>
+      </c>
+      <c r="N77" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14">
       <c r="A78" s="1" t="s">
-        <v>251</v>
+        <v>222</v>
       </c>
       <c r="B78" t="s">
-        <v>252</v>
+        <v>223</v>
       </c>
       <c r="C78" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D78">
         <v>1944</v>
@@ -5681,30 +5795,33 @@
         <v>36</v>
       </c>
       <c r="H78" t="s">
-        <v>604</v>
+        <v>560</v>
       </c>
       <c r="I78">
         <v>1937</v>
       </c>
       <c r="J78" t="s">
-        <v>4</v>
+        <v>577</v>
       </c>
       <c r="L78" t="s">
         <v>4</v>
       </c>
       <c r="M78" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="79" spans="1:13">
+        <v>224</v>
+      </c>
+      <c r="N78" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14">
       <c r="A79" t="s">
-        <v>254</v>
+        <v>225</v>
       </c>
       <c r="B79" t="s">
-        <v>255</v>
+        <v>226</v>
       </c>
       <c r="C79" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D79">
         <v>1947</v>
@@ -5725,24 +5842,27 @@
         <v>4</v>
       </c>
       <c r="J79" t="s">
-        <v>4</v>
+        <v>577</v>
       </c>
       <c r="L79" t="s">
         <v>4</v>
       </c>
       <c r="M79" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="80" spans="1:13">
+        <v>522</v>
+      </c>
+      <c r="N79" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14">
       <c r="A80" t="s">
-        <v>256</v>
+        <v>227</v>
       </c>
       <c r="B80" t="s">
-        <v>197</v>
+        <v>172</v>
       </c>
       <c r="C80" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D80">
         <v>1921</v>
@@ -5763,30 +5883,33 @@
         <v>4</v>
       </c>
       <c r="J80" t="s">
-        <v>4</v>
+        <v>577</v>
       </c>
       <c r="L80" t="s">
         <v>4</v>
       </c>
       <c r="M80" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="81" spans="1:13">
+        <v>523</v>
+      </c>
+      <c r="N80" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14">
       <c r="A81" t="s">
-        <v>257</v>
+        <v>228</v>
       </c>
       <c r="B81" t="s">
-        <v>240</v>
+        <v>211</v>
       </c>
       <c r="C81" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D81">
         <v>1950</v>
       </c>
       <c r="E81" t="s">
-        <v>558</v>
+        <v>515</v>
       </c>
       <c r="F81">
         <v>1944</v>
@@ -5795,36 +5918,39 @@
         <v>51</v>
       </c>
       <c r="H81" t="s">
-        <v>557</v>
+        <v>514</v>
       </c>
       <c r="I81">
         <v>1949</v>
       </c>
       <c r="J81" t="s">
-        <v>4</v>
+        <v>577</v>
       </c>
       <c r="L81" t="s">
         <v>4</v>
       </c>
       <c r="M81" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="82" spans="1:13">
+        <v>229</v>
+      </c>
+      <c r="N81" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14">
       <c r="A82" t="s">
-        <v>259</v>
+        <v>230</v>
       </c>
       <c r="B82" t="s">
-        <v>260</v>
+        <v>231</v>
       </c>
       <c r="C82" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="D82">
         <v>1947</v>
       </c>
       <c r="E82" t="s">
-        <v>559</v>
+        <v>516</v>
       </c>
       <c r="F82">
         <v>1887</v>
@@ -5833,30 +5959,33 @@
         <v>64</v>
       </c>
       <c r="H82" t="s">
-        <v>606</v>
+        <v>562</v>
       </c>
       <c r="I82">
         <v>1947</v>
       </c>
       <c r="J82" t="s">
-        <v>4</v>
+        <v>577</v>
       </c>
       <c r="L82" t="s">
         <v>4</v>
       </c>
       <c r="M82" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="83" spans="1:13">
+        <v>232</v>
+      </c>
+      <c r="N82" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14">
       <c r="A83" t="s">
-        <v>262</v>
+        <v>233</v>
       </c>
       <c r="B83" t="s">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="C83" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D83">
         <v>1950</v>
@@ -5877,24 +6006,27 @@
         <v>4</v>
       </c>
       <c r="J83" t="s">
-        <v>4</v>
+        <v>577</v>
       </c>
       <c r="L83" t="s">
         <v>4</v>
       </c>
       <c r="M83" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="84" spans="1:13">
+        <v>234</v>
+      </c>
+      <c r="N83" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14">
       <c r="A84" t="s">
-        <v>264</v>
+        <v>235</v>
       </c>
       <c r="B84" t="s">
-        <v>219</v>
+        <v>190</v>
       </c>
       <c r="C84" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D84">
         <v>1967</v>
@@ -5915,24 +6047,27 @@
         <v>4</v>
       </c>
       <c r="J84" t="s">
-        <v>4</v>
+        <v>577</v>
       </c>
       <c r="L84" t="s">
         <v>4</v>
       </c>
       <c r="M84" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="85" spans="1:13">
+        <v>236</v>
+      </c>
+      <c r="N84" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14">
       <c r="A85" t="s">
-        <v>266</v>
+        <v>237</v>
       </c>
       <c r="B85" t="s">
-        <v>267</v>
+        <v>238</v>
       </c>
       <c r="C85" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="D85">
         <v>1948</v>
@@ -5953,24 +6088,27 @@
         <v>4</v>
       </c>
       <c r="J85" t="s">
-        <v>4</v>
+        <v>577</v>
       </c>
       <c r="L85" t="s">
         <v>4</v>
       </c>
       <c r="M85" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="86" spans="1:13">
+        <v>239</v>
+      </c>
+      <c r="N85" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14">
       <c r="A86" t="s">
-        <v>269</v>
+        <v>240</v>
       </c>
       <c r="B86" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C86" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D86">
         <v>1947</v>
@@ -5991,24 +6129,27 @@
         <v>4</v>
       </c>
       <c r="J86" t="s">
-        <v>4</v>
+        <v>577</v>
       </c>
       <c r="L86" t="s">
         <v>4</v>
       </c>
       <c r="M86" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="87" spans="1:13">
+        <v>241</v>
+      </c>
+      <c r="N86" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14">
       <c r="A87" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
       <c r="B87" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="C87" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="D87">
         <v>1958</v>
@@ -6029,24 +6170,27 @@
         <v>4</v>
       </c>
       <c r="J87" t="s">
-        <v>4</v>
+        <v>577</v>
       </c>
       <c r="L87" t="s">
         <v>4</v>
       </c>
       <c r="M87" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="88" spans="1:13">
+        <v>243</v>
+      </c>
+      <c r="N87" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14">
       <c r="A88" t="s">
-        <v>273</v>
+        <v>244</v>
       </c>
       <c r="B88" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="C88" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="D88" t="s">
         <v>4</v>
@@ -6067,24 +6211,27 @@
         <v>4</v>
       </c>
       <c r="J88" t="s">
-        <v>4</v>
+        <v>577</v>
       </c>
       <c r="L88" t="s">
         <v>4</v>
       </c>
       <c r="M88" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="89" spans="1:13">
+        <v>524</v>
+      </c>
+      <c r="N88" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14">
       <c r="A89" t="s">
-        <v>274</v>
+        <v>245</v>
       </c>
       <c r="B89" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C89" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="D89">
         <v>1969</v>
@@ -6105,24 +6252,27 @@
         <v>4</v>
       </c>
       <c r="J89" t="s">
-        <v>4</v>
+        <v>577</v>
       </c>
       <c r="L89" t="s">
         <v>4</v>
       </c>
       <c r="M89" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="90" spans="1:13">
+        <v>246</v>
+      </c>
+      <c r="N89" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14">
       <c r="A90" t="s">
-        <v>276</v>
+        <v>247</v>
       </c>
       <c r="B90" t="s">
-        <v>277</v>
+        <v>248</v>
       </c>
       <c r="C90" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D90">
         <v>1894</v>
@@ -6143,24 +6293,27 @@
         <v>4</v>
       </c>
       <c r="J90" t="s">
-        <v>4</v>
+        <v>577</v>
       </c>
       <c r="L90" t="s">
         <v>4</v>
       </c>
       <c r="M90" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="91" spans="1:13">
+        <v>249</v>
+      </c>
+      <c r="N90" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14">
       <c r="A91" t="s">
-        <v>279</v>
+        <v>250</v>
       </c>
       <c r="B91" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="C91" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D91">
         <v>1893</v>
@@ -6181,30 +6334,33 @@
         <v>4</v>
       </c>
       <c r="J91" t="s">
-        <v>4</v>
+        <v>577</v>
       </c>
       <c r="L91" t="s">
         <v>4</v>
       </c>
       <c r="M91" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="92" spans="1:13">
+        <v>251</v>
+      </c>
+      <c r="N91" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14">
       <c r="A92" t="s">
-        <v>281</v>
+        <v>252</v>
       </c>
       <c r="B92" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C92" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D92">
         <v>1963</v>
       </c>
       <c r="E92" t="s">
-        <v>561</v>
+        <v>518</v>
       </c>
       <c r="F92" t="s">
         <v>4</v>
@@ -6213,30 +6369,33 @@
         <v>63</v>
       </c>
       <c r="H92" t="s">
-        <v>560</v>
+        <v>517</v>
       </c>
       <c r="I92">
         <v>1947</v>
       </c>
       <c r="J92" t="s">
-        <v>4</v>
+        <v>577</v>
       </c>
       <c r="L92" t="s">
         <v>4</v>
       </c>
       <c r="M92" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="93" spans="1:13">
+        <v>253</v>
+      </c>
+      <c r="N92" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14">
       <c r="A93" t="s">
-        <v>283</v>
+        <v>254</v>
       </c>
       <c r="B93" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="C93" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D93">
         <v>1949</v>
@@ -6257,24 +6416,27 @@
         <v>4</v>
       </c>
       <c r="J93" t="s">
-        <v>4</v>
+        <v>577</v>
       </c>
       <c r="L93" t="s">
         <v>4</v>
       </c>
       <c r="M93" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="94" spans="1:13">
+        <v>255</v>
+      </c>
+      <c r="N93" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14">
       <c r="A94" t="s">
-        <v>285</v>
+        <v>256</v>
       </c>
       <c r="B94" t="s">
-        <v>286</v>
+        <v>257</v>
       </c>
       <c r="C94" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D94">
         <v>1946</v>
@@ -6295,30 +6457,33 @@
         <v>4</v>
       </c>
       <c r="J94" t="s">
-        <v>4</v>
+        <v>577</v>
       </c>
       <c r="L94" t="s">
         <v>4</v>
       </c>
       <c r="M94" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="95" spans="1:13">
+        <v>258</v>
+      </c>
+      <c r="N94" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14">
       <c r="A95" t="s">
-        <v>288</v>
+        <v>259</v>
       </c>
       <c r="B95" t="s">
-        <v>260</v>
+        <v>231</v>
       </c>
       <c r="C95" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="D95">
         <v>1947</v>
       </c>
       <c r="E95" t="s">
-        <v>559</v>
+        <v>516</v>
       </c>
       <c r="F95">
         <v>1945</v>
@@ -6327,30 +6492,33 @@
         <v>64</v>
       </c>
       <c r="H95" t="s">
-        <v>605</v>
+        <v>561</v>
       </c>
       <c r="I95">
         <v>1947</v>
       </c>
       <c r="J95" t="s">
-        <v>4</v>
+        <v>577</v>
       </c>
       <c r="L95" t="s">
         <v>4</v>
       </c>
       <c r="M95" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="96" spans="1:13">
+        <v>260</v>
+      </c>
+      <c r="N95" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14">
       <c r="A96" t="s">
-        <v>290</v>
+        <v>261</v>
       </c>
       <c r="B96" t="s">
-        <v>260</v>
+        <v>231</v>
       </c>
       <c r="C96" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D96">
         <v>1965</v>
@@ -6371,24 +6539,27 @@
         <v>4</v>
       </c>
       <c r="J96" t="s">
-        <v>4</v>
+        <v>577</v>
       </c>
       <c r="L96" t="s">
-        <v>566</v>
+        <v>523</v>
       </c>
       <c r="M96" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="97" spans="1:13">
+        <v>262</v>
+      </c>
+      <c r="N96" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14">
       <c r="A97" t="s">
-        <v>292</v>
+        <v>263</v>
       </c>
       <c r="B97" t="s">
-        <v>293</v>
+        <v>264</v>
       </c>
       <c r="C97" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D97">
         <v>1966</v>
@@ -6409,24 +6580,27 @@
         <v>4</v>
       </c>
       <c r="J97" t="s">
-        <v>4</v>
+        <v>577</v>
       </c>
       <c r="L97" t="s">
         <v>4</v>
       </c>
       <c r="M97" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="98" spans="1:13">
+        <v>265</v>
+      </c>
+      <c r="N97" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14">
       <c r="A98" t="s">
-        <v>295</v>
+        <v>266</v>
       </c>
       <c r="B98" t="s">
-        <v>168</v>
+        <v>145</v>
       </c>
       <c r="C98" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D98">
         <v>1947</v>
@@ -6447,24 +6621,27 @@
         <v>4</v>
       </c>
       <c r="J98" t="s">
-        <v>4</v>
+        <v>577</v>
       </c>
       <c r="L98" t="s">
         <v>4</v>
       </c>
       <c r="M98" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="99" spans="1:13">
+        <v>267</v>
+      </c>
+      <c r="N98" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14">
       <c r="A99" t="s">
-        <v>297</v>
+        <v>268</v>
       </c>
       <c r="B99" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C99" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D99">
         <v>1931</v>
@@ -6485,24 +6662,27 @@
         <v>4</v>
       </c>
       <c r="J99" t="s">
-        <v>4</v>
+        <v>577</v>
       </c>
       <c r="L99" t="s">
         <v>4</v>
       </c>
       <c r="M99" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="100" spans="1:13">
+        <v>269</v>
+      </c>
+      <c r="N99" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14">
       <c r="A100" t="s">
-        <v>299</v>
+        <v>270</v>
       </c>
       <c r="B100" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="C100" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D100" t="s">
         <v>4</v>
@@ -6523,24 +6703,27 @@
         <v>4</v>
       </c>
       <c r="J100" t="s">
-        <v>4</v>
+        <v>577</v>
       </c>
       <c r="L100" t="s">
         <v>4</v>
       </c>
       <c r="M100" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="101" spans="1:13">
+        <v>525</v>
+      </c>
+      <c r="N100" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14">
       <c r="A101" t="s">
-        <v>300</v>
+        <v>271</v>
       </c>
       <c r="B101" t="s">
-        <v>301</v>
+        <v>272</v>
       </c>
       <c r="C101" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D101" t="s">
         <v>4</v>
@@ -6561,24 +6744,27 @@
         <v>4</v>
       </c>
       <c r="J101" t="s">
-        <v>4</v>
+        <v>577</v>
       </c>
       <c r="L101" t="s">
         <v>4</v>
       </c>
       <c r="M101" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="102" spans="1:13">
+        <v>273</v>
+      </c>
+      <c r="N101" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14">
       <c r="A102" t="s">
-        <v>303</v>
+        <v>274</v>
       </c>
       <c r="B102" t="s">
-        <v>197</v>
+        <v>172</v>
       </c>
       <c r="C102" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="D102">
         <v>1944</v>
@@ -6599,21 +6785,24 @@
         <v>4</v>
       </c>
       <c r="J102" t="s">
-        <v>4</v>
+        <v>577</v>
       </c>
       <c r="L102" t="s">
         <v>4</v>
       </c>
       <c r="M102" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="103" spans="1:13">
+        <v>275</v>
+      </c>
+      <c r="N102" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14">
       <c r="A103" t="s">
-        <v>305</v>
+        <v>276</v>
       </c>
       <c r="B103" t="s">
-        <v>306</v>
+        <v>277</v>
       </c>
       <c r="C103" t="s">
         <v>4</v>
@@ -6637,24 +6826,27 @@
         <v>4</v>
       </c>
       <c r="J103" t="s">
-        <v>4</v>
+        <v>577</v>
       </c>
       <c r="L103" t="s">
         <v>4</v>
       </c>
       <c r="M103" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="104" spans="1:13">
+        <v>278</v>
+      </c>
+      <c r="N103" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14">
       <c r="A104" s="1" t="s">
-        <v>308</v>
+        <v>279</v>
       </c>
       <c r="B104" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C104" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D104">
         <v>1992</v>
@@ -6666,7 +6858,7 @@
         <v>1944</v>
       </c>
       <c r="G104" t="s">
-        <v>309</v>
+        <v>280</v>
       </c>
       <c r="H104" t="s">
         <v>4</v>
@@ -6675,21 +6867,24 @@
         <v>4</v>
       </c>
       <c r="J104" t="s">
-        <v>4</v>
+        <v>577</v>
       </c>
       <c r="L104" t="s">
         <v>4</v>
       </c>
       <c r="M104" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="105" spans="1:13">
+        <v>526</v>
+      </c>
+      <c r="N104" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14">
       <c r="A105" s="1" t="s">
-        <v>310</v>
+        <v>281</v>
       </c>
       <c r="B105" t="s">
-        <v>267</v>
+        <v>238</v>
       </c>
       <c r="C105" t="s">
         <v>4</v>
@@ -6707,30 +6902,33 @@
         <v>10</v>
       </c>
       <c r="H105" t="s">
-        <v>607</v>
+        <v>563</v>
       </c>
       <c r="I105">
         <v>1960</v>
       </c>
       <c r="J105" t="s">
-        <v>4</v>
+        <v>577</v>
       </c>
       <c r="L105" t="s">
         <v>4</v>
       </c>
       <c r="M105" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="106" spans="1:13">
+        <v>282</v>
+      </c>
+      <c r="N105" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14">
       <c r="A106" t="s">
-        <v>312</v>
+        <v>283</v>
       </c>
       <c r="B106" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C106" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D106">
         <v>1946</v>
@@ -6751,24 +6949,27 @@
         <v>4</v>
       </c>
       <c r="J106" t="s">
-        <v>4</v>
+        <v>577</v>
       </c>
       <c r="L106" t="s">
         <v>4</v>
       </c>
       <c r="M106" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="107" spans="1:13">
+        <v>527</v>
+      </c>
+      <c r="N106" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14">
       <c r="A107" t="s">
-        <v>313</v>
+        <v>284</v>
       </c>
       <c r="B107" t="s">
-        <v>314</v>
+        <v>285</v>
       </c>
       <c r="C107" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D107">
         <v>1968</v>
@@ -6777,7 +6978,7 @@
         <v>4</v>
       </c>
       <c r="F107" t="s">
-        <v>315</v>
+        <v>286</v>
       </c>
       <c r="G107">
         <v>64</v>
@@ -6789,24 +6990,27 @@
         <v>4</v>
       </c>
       <c r="J107" t="s">
-        <v>4</v>
+        <v>577</v>
       </c>
       <c r="L107" t="s">
         <v>4</v>
       </c>
       <c r="M107" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="108" spans="1:13">
+        <v>528</v>
+      </c>
+      <c r="N107" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14">
       <c r="A108" t="s">
-        <v>316</v>
+        <v>287</v>
       </c>
       <c r="B108" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C108" t="s">
-        <v>317</v>
+        <v>288</v>
       </c>
       <c r="D108">
         <v>1997</v>
@@ -6818,7 +7022,7 @@
         <v>1817</v>
       </c>
       <c r="G108" t="s">
-        <v>318</v>
+        <v>289</v>
       </c>
       <c r="H108" t="s">
         <v>4</v>
@@ -6827,24 +7031,27 @@
         <v>4</v>
       </c>
       <c r="J108" t="s">
-        <v>4</v>
+        <v>577</v>
       </c>
       <c r="L108" t="s">
         <v>4</v>
       </c>
       <c r="M108" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="109" spans="1:13">
+        <v>290</v>
+      </c>
+      <c r="N108" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14">
       <c r="A109" t="s">
-        <v>320</v>
+        <v>291</v>
       </c>
       <c r="B109" t="s">
-        <v>617</v>
+        <v>573</v>
       </c>
       <c r="C109" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="D109">
         <v>1949</v>
@@ -6865,24 +7072,27 @@
         <v>4</v>
       </c>
       <c r="J109" t="s">
-        <v>4</v>
+        <v>577</v>
       </c>
       <c r="L109" t="s">
         <v>4</v>
       </c>
       <c r="M109" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="110" spans="1:13">
+        <v>292</v>
+      </c>
+      <c r="N109" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14">
       <c r="A110" t="s">
-        <v>322</v>
+        <v>293</v>
       </c>
       <c r="B110" t="s">
-        <v>293</v>
+        <v>264</v>
       </c>
       <c r="C110" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D110">
         <v>1962</v>
@@ -6903,21 +7113,24 @@
         <v>4</v>
       </c>
       <c r="J110" t="s">
-        <v>4</v>
+        <v>577</v>
       </c>
       <c r="L110" t="s">
         <v>4</v>
       </c>
       <c r="M110" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="111" spans="1:13">
+        <v>294</v>
+      </c>
+      <c r="N110" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14">
       <c r="A111" t="s">
-        <v>324</v>
+        <v>295</v>
       </c>
       <c r="B111" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C111" t="s">
         <v>4</v>
@@ -6941,24 +7154,27 @@
         <v>4</v>
       </c>
       <c r="J111" t="s">
-        <v>4</v>
+        <v>577</v>
       </c>
       <c r="L111" t="s">
         <v>4</v>
       </c>
       <c r="M111" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="112" spans="1:13">
+        <v>253</v>
+      </c>
+      <c r="N111" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14">
       <c r="A112" t="s">
-        <v>325</v>
+        <v>296</v>
       </c>
       <c r="B112" t="s">
-        <v>326</v>
+        <v>297</v>
       </c>
       <c r="C112" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D112" t="s">
         <v>4</v>
@@ -6979,24 +7195,27 @@
         <v>4</v>
       </c>
       <c r="J112" t="s">
-        <v>4</v>
+        <v>577</v>
       </c>
       <c r="L112" t="s">
         <v>4</v>
       </c>
       <c r="M112" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="113" spans="1:13">
+        <v>529</v>
+      </c>
+      <c r="N112" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14">
       <c r="A113" t="s">
-        <v>327</v>
+        <v>298</v>
       </c>
       <c r="B113" t="s">
-        <v>286</v>
+        <v>257</v>
       </c>
       <c r="C113" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D113">
         <v>1947</v>
@@ -7017,24 +7236,27 @@
         <v>4</v>
       </c>
       <c r="J113" t="s">
-        <v>4</v>
+        <v>577</v>
       </c>
       <c r="L113" t="s">
         <v>4</v>
       </c>
       <c r="M113" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="114" spans="1:13">
+        <v>299</v>
+      </c>
+      <c r="N113" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14">
       <c r="A114" s="1" t="s">
-        <v>329</v>
+        <v>300</v>
       </c>
       <c r="B114" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C114" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D114">
         <v>1950</v>
@@ -7046,33 +7268,36 @@
         <v>1860</v>
       </c>
       <c r="G114" t="s">
-        <v>330</v>
+        <v>301</v>
       </c>
       <c r="H114" t="s">
-        <v>574</v>
+        <v>531</v>
       </c>
       <c r="I114">
         <v>1944</v>
       </c>
       <c r="J114" t="s">
-        <v>4</v>
+        <v>577</v>
       </c>
       <c r="L114" t="s">
         <v>4</v>
       </c>
       <c r="M114" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="115" spans="1:13">
+        <v>302</v>
+      </c>
+      <c r="N114" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14">
       <c r="A115" t="s">
-        <v>332</v>
+        <v>303</v>
       </c>
       <c r="B115" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="C115" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D115">
         <v>1947</v>
@@ -7093,24 +7318,27 @@
         <v>4</v>
       </c>
       <c r="J115" t="s">
-        <v>4</v>
+        <v>577</v>
       </c>
       <c r="L115" t="s">
         <v>4</v>
       </c>
       <c r="M115" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="116" spans="1:13">
+        <v>304</v>
+      </c>
+      <c r="N115" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14">
       <c r="A116" s="1" t="s">
-        <v>334</v>
+        <v>305</v>
       </c>
       <c r="B116" t="s">
-        <v>252</v>
+        <v>223</v>
       </c>
       <c r="C116" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D116">
         <v>1951</v>
@@ -7125,30 +7353,33 @@
         <v>36</v>
       </c>
       <c r="H116" t="s">
-        <v>575</v>
+        <v>532</v>
       </c>
       <c r="I116">
         <v>1951</v>
       </c>
       <c r="J116" t="s">
-        <v>4</v>
+        <v>577</v>
       </c>
       <c r="L116" t="s">
-        <v>335</v>
+        <v>306</v>
       </c>
       <c r="M116" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="117" spans="1:13">
+        <v>307</v>
+      </c>
+      <c r="N116" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14">
       <c r="A117" t="s">
-        <v>337</v>
+        <v>308</v>
       </c>
       <c r="B117" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C117" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D117">
         <v>1947</v>
@@ -7169,24 +7400,27 @@
         <v>4</v>
       </c>
       <c r="J117" t="s">
-        <v>4</v>
+        <v>577</v>
       </c>
       <c r="L117" t="s">
         <v>4</v>
       </c>
       <c r="M117" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="118" spans="1:13">
+        <v>309</v>
+      </c>
+      <c r="N117" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14">
       <c r="A118" t="s">
-        <v>339</v>
+        <v>310</v>
       </c>
       <c r="B118" t="s">
-        <v>340</v>
+        <v>311</v>
       </c>
       <c r="C118" t="s">
-        <v>341</v>
+        <v>312</v>
       </c>
       <c r="D118">
         <v>2016</v>
@@ -7201,30 +7435,33 @@
         <v>81</v>
       </c>
       <c r="H118" t="s">
-        <v>576</v>
+        <v>533</v>
       </c>
       <c r="I118">
         <v>1989</v>
       </c>
       <c r="J118" t="s">
-        <v>4</v>
+        <v>577</v>
       </c>
       <c r="L118" t="s">
         <v>4</v>
       </c>
       <c r="M118" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="119" spans="1:13">
+        <v>313</v>
+      </c>
+      <c r="N118" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14">
       <c r="A119" t="s">
-        <v>343</v>
+        <v>314</v>
       </c>
       <c r="B119" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C119" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D119">
         <v>1947</v>
@@ -7245,24 +7482,27 @@
         <v>4</v>
       </c>
       <c r="J119" t="s">
-        <v>4</v>
+        <v>577</v>
       </c>
       <c r="L119" t="s">
         <v>4</v>
       </c>
       <c r="M119" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="120" spans="1:13">
+        <v>530</v>
+      </c>
+      <c r="N119" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14">
       <c r="A120" t="s">
-        <v>344</v>
+        <v>315</v>
       </c>
       <c r="B120" t="s">
-        <v>219</v>
+        <v>190</v>
       </c>
       <c r="C120" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D120">
         <v>1947</v>
@@ -7283,24 +7523,27 @@
         <v>4</v>
       </c>
       <c r="J120" t="s">
-        <v>4</v>
+        <v>577</v>
       </c>
       <c r="L120" t="s">
         <v>4</v>
       </c>
       <c r="M120" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="121" spans="1:13">
+        <v>316</v>
+      </c>
+      <c r="N120" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14">
       <c r="A121" t="s">
-        <v>346</v>
+        <v>317</v>
       </c>
       <c r="B121" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C121" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D121" t="s">
         <v>4</v>
@@ -7321,24 +7564,27 @@
         <v>4</v>
       </c>
       <c r="J121" t="s">
-        <v>4</v>
+        <v>577</v>
       </c>
       <c r="L121" t="s">
         <v>4</v>
       </c>
       <c r="M121" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="122" spans="1:13">
+        <v>527</v>
+      </c>
+      <c r="N121" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14">
       <c r="A122" s="1" t="s">
-        <v>347</v>
+        <v>318</v>
       </c>
       <c r="B122" t="s">
-        <v>348</v>
+        <v>319</v>
       </c>
       <c r="C122" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D122">
         <v>1903</v>
@@ -7359,24 +7605,27 @@
         <v>4</v>
       </c>
       <c r="J122" t="s">
-        <v>4</v>
+        <v>577</v>
       </c>
       <c r="L122" t="s">
         <v>4</v>
       </c>
       <c r="M122" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="123" spans="1:13">
+        <v>320</v>
+      </c>
+      <c r="N122" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14">
       <c r="A123" t="s">
-        <v>350</v>
+        <v>321</v>
       </c>
       <c r="B123" t="s">
-        <v>351</v>
+        <v>322</v>
       </c>
       <c r="C123" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D123">
         <v>1949</v>
@@ -7388,7 +7637,7 @@
         <v>1939</v>
       </c>
       <c r="G123" t="s">
-        <v>318</v>
+        <v>289</v>
       </c>
       <c r="H123" t="s">
         <v>4</v>
@@ -7397,24 +7646,27 @@
         <v>4</v>
       </c>
       <c r="J123" t="s">
-        <v>4</v>
+        <v>577</v>
       </c>
       <c r="L123" t="s">
         <v>4</v>
       </c>
       <c r="M123" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="124" spans="1:13">
+        <v>323</v>
+      </c>
+      <c r="N123" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14">
       <c r="A124" t="s">
-        <v>353</v>
+        <v>324</v>
       </c>
       <c r="B124" t="s">
-        <v>354</v>
+        <v>325</v>
       </c>
       <c r="C124" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D124">
         <v>1944</v>
@@ -7435,24 +7687,27 @@
         <v>4</v>
       </c>
       <c r="J124" t="s">
-        <v>4</v>
+        <v>577</v>
       </c>
       <c r="L124" t="s">
         <v>4</v>
       </c>
       <c r="M124" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="125" spans="1:13">
+        <v>326</v>
+      </c>
+      <c r="N124" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14">
       <c r="A125" t="s">
-        <v>356</v>
+        <v>327</v>
       </c>
       <c r="B125" t="s">
-        <v>182</v>
+        <v>159</v>
       </c>
       <c r="C125" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D125">
         <v>1947</v>
@@ -7464,30 +7719,33 @@
         <v>1945</v>
       </c>
       <c r="G125" t="s">
-        <v>357</v>
+        <v>328</v>
       </c>
       <c r="H125" t="s">
         <v>4</v>
       </c>
       <c r="I125" t="s">
-        <v>358</v>
+        <v>329</v>
       </c>
       <c r="J125" t="s">
-        <v>4</v>
+        <v>577</v>
       </c>
       <c r="L125" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="126" spans="1:13">
+      <c r="N125" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14">
       <c r="A126" t="s">
-        <v>359</v>
+        <v>330</v>
       </c>
       <c r="B126" t="s">
-        <v>351</v>
+        <v>322</v>
       </c>
       <c r="C126" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D126">
         <v>1972</v>
@@ -7499,7 +7757,7 @@
         <v>1881</v>
       </c>
       <c r="G126" t="s">
-        <v>318</v>
+        <v>289</v>
       </c>
       <c r="H126" t="s">
         <v>4</v>
@@ -7508,24 +7766,27 @@
         <v>4</v>
       </c>
       <c r="J126" t="s">
-        <v>4</v>
+        <v>577</v>
       </c>
       <c r="L126" t="s">
         <v>4</v>
       </c>
       <c r="M126" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="127" spans="1:13">
+        <v>331</v>
+      </c>
+      <c r="N126" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14">
       <c r="A127" t="s">
-        <v>361</v>
+        <v>332</v>
       </c>
       <c r="B127" t="s">
-        <v>362</v>
+        <v>333</v>
       </c>
       <c r="C127" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D127">
         <v>1947</v>
@@ -7546,24 +7807,27 @@
         <v>4</v>
       </c>
       <c r="J127" t="s">
-        <v>4</v>
+        <v>577</v>
       </c>
       <c r="L127" t="s">
         <v>4</v>
       </c>
       <c r="M127" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="128" spans="1:13">
+        <v>334</v>
+      </c>
+      <c r="N127" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="128" spans="1:14">
       <c r="A128" s="1" t="s">
-        <v>364</v>
+        <v>335</v>
       </c>
       <c r="B128" t="s">
-        <v>365</v>
+        <v>336</v>
       </c>
       <c r="C128" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D128">
         <v>1975</v>
@@ -7581,27 +7845,30 @@
         <v>4</v>
       </c>
       <c r="I128" t="s">
-        <v>243</v>
+        <v>214</v>
       </c>
       <c r="J128" t="s">
-        <v>4</v>
+        <v>577</v>
       </c>
       <c r="L128" t="s">
         <v>4</v>
       </c>
       <c r="M128" t="s">
-        <v>366</v>
+        <v>337</v>
+      </c>
+      <c r="N128" t="s">
+        <v>577</v>
       </c>
     </row>
     <row r="129" spans="1:14">
       <c r="A129" t="s">
-        <v>367</v>
+        <v>338</v>
       </c>
       <c r="B129" t="s">
-        <v>232</v>
+        <v>203</v>
       </c>
       <c r="C129" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="D129">
         <v>1956</v>
@@ -7613,39 +7880,36 @@
         <v>1874</v>
       </c>
       <c r="G129" t="s">
-        <v>368</v>
+        <v>339</v>
       </c>
       <c r="H129" t="s">
-        <v>577</v>
+        <v>534</v>
       </c>
       <c r="I129">
         <v>1956</v>
       </c>
       <c r="J129" t="s">
-        <v>4</v>
-      </c>
-      <c r="K129" t="s">
-        <v>4</v>
+        <v>577</v>
       </c>
       <c r="L129" t="s">
         <v>4</v>
       </c>
       <c r="M129" t="s">
-        <v>566</v>
+        <v>523</v>
       </c>
       <c r="N129" t="s">
-        <v>369</v>
+        <v>577</v>
       </c>
     </row>
     <row r="130" spans="1:14">
       <c r="A130" t="s">
-        <v>370</v>
+        <v>340</v>
       </c>
       <c r="B130" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="C130" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="D130">
         <v>1948</v>
@@ -7660,30 +7924,33 @@
         <v>14</v>
       </c>
       <c r="H130" t="s">
-        <v>578</v>
+        <v>535</v>
       </c>
       <c r="I130">
         <v>1948</v>
       </c>
       <c r="J130" t="s">
-        <v>4</v>
+        <v>577</v>
       </c>
       <c r="L130" t="s">
         <v>4</v>
       </c>
       <c r="M130" t="s">
-        <v>96</v>
+        <v>84</v>
+      </c>
+      <c r="N130" t="s">
+        <v>577</v>
       </c>
     </row>
     <row r="131" spans="1:14">
       <c r="A131" t="s">
-        <v>371</v>
+        <v>341</v>
       </c>
       <c r="B131" t="s">
-        <v>178</v>
+        <v>155</v>
       </c>
       <c r="C131" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D131">
         <v>1946</v>
@@ -7692,7 +7959,7 @@
         <v>4</v>
       </c>
       <c r="F131" t="s">
-        <v>372</v>
+        <v>342</v>
       </c>
       <c r="G131">
         <v>47</v>
@@ -7704,24 +7971,27 @@
         <v>4</v>
       </c>
       <c r="J131" t="s">
-        <v>4</v>
+        <v>577</v>
       </c>
       <c r="L131" t="s">
         <v>4</v>
       </c>
       <c r="M131" t="s">
-        <v>373</v>
+        <v>343</v>
+      </c>
+      <c r="N131" t="s">
+        <v>577</v>
       </c>
     </row>
     <row r="132" spans="1:14">
       <c r="A132" t="s">
-        <v>374</v>
+        <v>344</v>
       </c>
       <c r="B132" t="s">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="C132" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D132">
         <v>1932</v>
@@ -7742,24 +8012,27 @@
         <v>4</v>
       </c>
       <c r="J132" t="s">
-        <v>4</v>
+        <v>577</v>
       </c>
       <c r="L132" t="s">
         <v>4</v>
       </c>
       <c r="M132" t="s">
-        <v>263</v>
+        <v>234</v>
+      </c>
+      <c r="N132" t="s">
+        <v>577</v>
       </c>
     </row>
     <row r="133" spans="1:14">
       <c r="A133" t="s">
-        <v>375</v>
+        <v>345</v>
       </c>
       <c r="B133" t="s">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="C133" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D133">
         <v>1950</v>
@@ -7780,24 +8053,27 @@
         <v>4</v>
       </c>
       <c r="J133" t="s">
-        <v>4</v>
+        <v>577</v>
       </c>
       <c r="L133" t="s">
         <v>4</v>
       </c>
       <c r="M133" t="s">
-        <v>376</v>
+        <v>346</v>
+      </c>
+      <c r="N133" t="s">
+        <v>577</v>
       </c>
     </row>
     <row r="134" spans="1:14">
       <c r="A134" t="s">
-        <v>377</v>
+        <v>347</v>
       </c>
       <c r="B134" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C134" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D134">
         <v>1947</v>
@@ -7809,7 +8085,7 @@
         <v>1943</v>
       </c>
       <c r="G134" t="s">
-        <v>318</v>
+        <v>289</v>
       </c>
       <c r="H134" t="s">
         <v>4</v>
@@ -7818,24 +8094,27 @@
         <v>4</v>
       </c>
       <c r="J134" t="s">
-        <v>4</v>
+        <v>577</v>
       </c>
       <c r="L134" t="s">
         <v>4</v>
       </c>
       <c r="M134" t="s">
-        <v>378</v>
+        <v>348</v>
+      </c>
+      <c r="N134" t="s">
+        <v>577</v>
       </c>
     </row>
     <row r="135" spans="1:14">
       <c r="A135" t="s">
-        <v>379</v>
+        <v>349</v>
       </c>
       <c r="B135" t="s">
-        <v>365</v>
+        <v>336</v>
       </c>
       <c r="C135" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D135">
         <v>1944</v>
@@ -7856,24 +8135,27 @@
         <v>4</v>
       </c>
       <c r="J135" t="s">
-        <v>4</v>
+        <v>577</v>
       </c>
       <c r="L135" t="s">
         <v>4</v>
       </c>
       <c r="M135" t="s">
-        <v>380</v>
+        <v>350</v>
+      </c>
+      <c r="N135" t="s">
+        <v>577</v>
       </c>
     </row>
     <row r="136" spans="1:14">
       <c r="A136" t="s">
-        <v>381</v>
+        <v>351</v>
       </c>
       <c r="B136" t="s">
-        <v>190</v>
+        <v>167</v>
       </c>
       <c r="C136" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D136">
         <v>1945</v>
@@ -7894,24 +8176,27 @@
         <v>4</v>
       </c>
       <c r="J136" t="s">
-        <v>4</v>
+        <v>577</v>
       </c>
       <c r="L136" t="s">
         <v>4</v>
       </c>
       <c r="M136" t="s">
-        <v>382</v>
+        <v>352</v>
+      </c>
+      <c r="N136" t="s">
+        <v>577</v>
       </c>
     </row>
     <row r="137" spans="1:14">
       <c r="A137" t="s">
-        <v>383</v>
+        <v>353</v>
       </c>
       <c r="B137" t="s">
-        <v>384</v>
+        <v>354</v>
       </c>
       <c r="C137" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D137">
         <v>1947</v>
@@ -7932,24 +8217,27 @@
         <v>4</v>
       </c>
       <c r="J137" t="s">
-        <v>385</v>
+        <v>577</v>
       </c>
       <c r="L137" t="s">
         <v>4</v>
       </c>
       <c r="M137" t="s">
-        <v>386</v>
+        <v>355</v>
+      </c>
+      <c r="N137" t="s">
+        <v>577</v>
       </c>
     </row>
     <row r="138" spans="1:14">
       <c r="A138" t="s">
-        <v>387</v>
+        <v>356</v>
       </c>
       <c r="B138" t="s">
-        <v>388</v>
+        <v>357</v>
       </c>
       <c r="C138" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D138">
         <v>1946</v>
@@ -7970,24 +8258,27 @@
         <v>4</v>
       </c>
       <c r="J138" t="s">
-        <v>4</v>
+        <v>577</v>
       </c>
       <c r="L138" t="s">
         <v>4</v>
       </c>
       <c r="M138" t="s">
-        <v>389</v>
+        <v>358</v>
+      </c>
+      <c r="N138" t="s">
+        <v>577</v>
       </c>
     </row>
     <row r="139" spans="1:14">
       <c r="A139" t="s">
-        <v>390</v>
+        <v>359</v>
       </c>
       <c r="B139" t="s">
-        <v>260</v>
+        <v>231</v>
       </c>
       <c r="C139" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D139">
         <v>1948</v>
@@ -8008,21 +8299,24 @@
         <v>4</v>
       </c>
       <c r="J139" t="s">
-        <v>391</v>
+        <v>577</v>
       </c>
       <c r="L139" t="s">
         <v>4</v>
       </c>
       <c r="M139" t="s">
-        <v>392</v>
+        <v>360</v>
+      </c>
+      <c r="N139" t="s">
+        <v>577</v>
       </c>
     </row>
     <row r="140" spans="1:14">
       <c r="A140" t="s">
-        <v>393</v>
+        <v>361</v>
       </c>
       <c r="B140" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="C140" t="s">
         <v>4</v>
@@ -8037,7 +8331,7 @@
         <v>1944</v>
       </c>
       <c r="G140" t="s">
-        <v>212</v>
+        <v>185</v>
       </c>
       <c r="H140" t="s">
         <v>4</v>
@@ -8046,24 +8340,27 @@
         <v>4</v>
       </c>
       <c r="J140" t="s">
-        <v>4</v>
+        <v>577</v>
       </c>
       <c r="L140" t="s">
         <v>4</v>
       </c>
       <c r="M140" t="s">
-        <v>214</v>
+        <v>186</v>
+      </c>
+      <c r="N140" t="s">
+        <v>577</v>
       </c>
     </row>
     <row r="141" spans="1:14">
       <c r="A141" t="s">
-        <v>394</v>
+        <v>362</v>
       </c>
       <c r="B141" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C141" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D141">
         <v>1892</v>
@@ -8075,7 +8372,7 @@
         <v>1883</v>
       </c>
       <c r="G141" t="s">
-        <v>395</v>
+        <v>363</v>
       </c>
       <c r="H141" t="s">
         <v>4</v>
@@ -8084,24 +8381,27 @@
         <v>4</v>
       </c>
       <c r="J141" t="s">
-        <v>4</v>
+        <v>577</v>
       </c>
       <c r="L141" t="s">
         <v>4</v>
       </c>
       <c r="M141" t="s">
-        <v>396</v>
+        <v>364</v>
+      </c>
+      <c r="N141" t="s">
+        <v>577</v>
       </c>
     </row>
     <row r="142" spans="1:14">
       <c r="A142" t="s">
-        <v>397</v>
+        <v>365</v>
       </c>
       <c r="B142" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="C142" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D142">
         <v>1944</v>
@@ -8110,36 +8410,39 @@
         <v>4</v>
       </c>
       <c r="F142" t="s">
-        <v>372</v>
+        <v>342</v>
       </c>
       <c r="G142">
         <v>69</v>
       </c>
       <c r="H142" t="s">
-        <v>579</v>
+        <v>536</v>
       </c>
       <c r="I142">
         <v>1944</v>
       </c>
       <c r="J142" t="s">
-        <v>4</v>
+        <v>577</v>
       </c>
       <c r="L142" t="s">
         <v>4</v>
       </c>
       <c r="M142" t="s">
-        <v>398</v>
+        <v>366</v>
+      </c>
+      <c r="N142" t="s">
+        <v>577</v>
       </c>
     </row>
     <row r="143" spans="1:14">
       <c r="A143" t="s">
-        <v>399</v>
+        <v>367</v>
       </c>
       <c r="B143" t="s">
-        <v>400</v>
+        <v>368</v>
       </c>
       <c r="C143" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D143">
         <v>1930</v>
@@ -8160,24 +8463,27 @@
         <v>4</v>
       </c>
       <c r="J143" t="s">
-        <v>4</v>
+        <v>577</v>
       </c>
       <c r="L143" t="s">
         <v>4</v>
       </c>
       <c r="M143" t="s">
-        <v>401</v>
+        <v>369</v>
+      </c>
+      <c r="N143" t="s">
+        <v>577</v>
       </c>
     </row>
     <row r="144" spans="1:14">
       <c r="A144" t="s">
-        <v>402</v>
+        <v>370</v>
       </c>
       <c r="B144" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="C144" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D144">
         <v>1947</v>
@@ -8198,24 +8504,27 @@
         <v>4</v>
       </c>
       <c r="J144" t="s">
-        <v>4</v>
+        <v>577</v>
       </c>
       <c r="L144" t="s">
         <v>4</v>
       </c>
       <c r="M144" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="145" spans="1:13">
+        <v>371</v>
+      </c>
+      <c r="N144" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="145" spans="1:14">
       <c r="A145" t="s">
-        <v>404</v>
+        <v>372</v>
       </c>
       <c r="B145" t="s">
-        <v>255</v>
+        <v>226</v>
       </c>
       <c r="C145" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D145">
         <v>1963</v>
@@ -8236,24 +8545,27 @@
         <v>4</v>
       </c>
       <c r="J145" t="s">
-        <v>4</v>
+        <v>577</v>
       </c>
       <c r="L145" t="s">
         <v>4</v>
       </c>
       <c r="M145" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="146" spans="1:13">
+        <v>373</v>
+      </c>
+      <c r="N145" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="146" spans="1:14">
       <c r="A146" t="s">
-        <v>406</v>
+        <v>374</v>
       </c>
       <c r="B146" t="s">
-        <v>255</v>
+        <v>226</v>
       </c>
       <c r="C146" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D146">
         <v>1944</v>
@@ -8274,24 +8586,27 @@
         <v>4</v>
       </c>
       <c r="J146" t="s">
-        <v>4</v>
+        <v>577</v>
       </c>
       <c r="L146" t="s">
         <v>4</v>
       </c>
       <c r="M146" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="147" spans="1:13">
+        <v>373</v>
+      </c>
+      <c r="N146" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="147" spans="1:14">
       <c r="A147" t="s">
-        <v>407</v>
+        <v>375</v>
       </c>
       <c r="B147" t="s">
-        <v>400</v>
+        <v>368</v>
       </c>
       <c r="C147" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D147">
         <v>1955</v>
@@ -8306,30 +8621,33 @@
         <v>3</v>
       </c>
       <c r="H147" t="s">
-        <v>580</v>
+        <v>537</v>
       </c>
       <c r="I147">
         <v>1952</v>
       </c>
       <c r="J147" t="s">
-        <v>4</v>
+        <v>577</v>
       </c>
       <c r="L147" t="s">
         <v>4</v>
       </c>
       <c r="M147" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="148" spans="1:13">
+        <v>265</v>
+      </c>
+      <c r="N147" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="148" spans="1:14">
       <c r="A148" t="s">
-        <v>408</v>
+        <v>376</v>
       </c>
       <c r="B148" t="s">
-        <v>384</v>
+        <v>354</v>
       </c>
       <c r="C148" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D148">
         <v>1947</v>
@@ -8350,24 +8668,27 @@
         <v>4</v>
       </c>
       <c r="J148" t="s">
-        <v>4</v>
+        <v>577</v>
       </c>
       <c r="L148" t="s">
         <v>4</v>
       </c>
       <c r="M148" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="149" spans="1:13">
+        <v>355</v>
+      </c>
+      <c r="N148" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="149" spans="1:14">
       <c r="A149" t="s">
-        <v>409</v>
+        <v>377</v>
       </c>
       <c r="B149" t="s">
-        <v>301</v>
+        <v>272</v>
       </c>
       <c r="C149" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D149">
         <v>1953</v>
@@ -8379,7 +8700,7 @@
         <v>1943</v>
       </c>
       <c r="G149" t="s">
-        <v>410</v>
+        <v>378</v>
       </c>
       <c r="H149" t="s">
         <v>4</v>
@@ -8388,24 +8709,27 @@
         <v>4</v>
       </c>
       <c r="J149" t="s">
-        <v>4</v>
+        <v>577</v>
       </c>
       <c r="L149" t="s">
         <v>4</v>
       </c>
       <c r="M149" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="150" spans="1:13">
+        <v>379</v>
+      </c>
+      <c r="N149" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="150" spans="1:14">
       <c r="A150" t="s">
-        <v>412</v>
+        <v>380</v>
       </c>
       <c r="B150" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C150" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D150">
         <v>1951</v>
@@ -8426,24 +8750,27 @@
         <v>4</v>
       </c>
       <c r="J150" t="s">
-        <v>4</v>
+        <v>577</v>
       </c>
       <c r="L150" t="s">
         <v>4</v>
       </c>
       <c r="M150" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="151" spans="1:13">
+        <v>381</v>
+      </c>
+      <c r="N150" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="151" spans="1:14">
       <c r="A151" t="s">
-        <v>414</v>
+        <v>382</v>
       </c>
       <c r="B151" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C151" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D151">
         <v>1951</v>
@@ -8464,21 +8791,24 @@
         <v>4</v>
       </c>
       <c r="J151" t="s">
-        <v>4</v>
+        <v>577</v>
       </c>
       <c r="L151" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="152" spans="1:13">
+      <c r="N151" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="152" spans="1:14">
       <c r="A152" t="s">
-        <v>415</v>
+        <v>383</v>
       </c>
       <c r="B152" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C152" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D152">
         <v>1946</v>
@@ -8496,21 +8826,24 @@
         <v>4</v>
       </c>
       <c r="J152" t="s">
-        <v>4</v>
+        <v>577</v>
       </c>
       <c r="L152" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="153" spans="1:13">
+      <c r="N152" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="153" spans="1:14">
       <c r="A153" t="s">
-        <v>416</v>
+        <v>384</v>
       </c>
       <c r="B153" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="C153" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D153">
         <v>1948</v>
@@ -8531,24 +8864,27 @@
         <v>4</v>
       </c>
       <c r="J153" t="s">
-        <v>417</v>
+        <v>577</v>
       </c>
       <c r="L153" t="s">
         <v>4</v>
       </c>
       <c r="M153" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="154" spans="1:13">
+        <v>385</v>
+      </c>
+      <c r="N153" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="154" spans="1:14">
       <c r="A154" t="s">
-        <v>419</v>
+        <v>386</v>
       </c>
       <c r="B154" t="s">
-        <v>420</v>
+        <v>387</v>
       </c>
       <c r="C154" t="s">
-        <v>317</v>
+        <v>288</v>
       </c>
       <c r="D154">
         <v>1947</v>
@@ -8569,24 +8905,27 @@
         <v>4</v>
       </c>
       <c r="J154" t="s">
-        <v>421</v>
+        <v>577</v>
       </c>
       <c r="L154" t="s">
         <v>4</v>
       </c>
       <c r="M154" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="155" spans="1:13">
+        <v>360</v>
+      </c>
+      <c r="N154" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="155" spans="1:14">
       <c r="A155" t="s">
-        <v>422</v>
+        <v>388</v>
       </c>
       <c r="B155" t="s">
-        <v>354</v>
+        <v>325</v>
       </c>
       <c r="C155" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D155">
         <v>1951</v>
@@ -8607,24 +8946,27 @@
         <v>4</v>
       </c>
       <c r="J155" t="s">
-        <v>243</v>
+        <v>577</v>
       </c>
       <c r="L155" t="s">
         <v>4</v>
       </c>
       <c r="M155" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="156" spans="1:13">
+        <v>389</v>
+      </c>
+      <c r="N155" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="156" spans="1:14">
       <c r="A156" t="s">
-        <v>424</v>
+        <v>390</v>
       </c>
       <c r="B156" t="s">
-        <v>348</v>
+        <v>319</v>
       </c>
       <c r="C156" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D156">
         <v>1948</v>
@@ -8645,24 +8987,27 @@
         <v>4</v>
       </c>
       <c r="J156" t="s">
-        <v>243</v>
+        <v>577</v>
       </c>
       <c r="L156" t="s">
         <v>4</v>
       </c>
       <c r="M156" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="157" spans="1:13">
+        <v>391</v>
+      </c>
+      <c r="N156" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="157" spans="1:14">
       <c r="A157" t="s">
-        <v>426</v>
+        <v>392</v>
       </c>
       <c r="B157" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C157" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D157">
         <v>1948</v>
@@ -8683,24 +9028,27 @@
         <v>4</v>
       </c>
       <c r="J157" t="s">
-        <v>243</v>
+        <v>577</v>
       </c>
       <c r="L157" t="s">
         <v>4</v>
       </c>
       <c r="M157" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="158" spans="1:13">
+        <v>393</v>
+      </c>
+      <c r="N157" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="158" spans="1:14">
       <c r="A158" t="s">
-        <v>428</v>
+        <v>394</v>
       </c>
       <c r="B158" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C158" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D158">
         <v>1953</v>
@@ -8721,18 +9069,21 @@
         <v>4</v>
       </c>
       <c r="J158" t="s">
-        <v>243</v>
+        <v>577</v>
       </c>
       <c r="L158" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="159" spans="1:13">
+        <v>140</v>
+      </c>
+      <c r="N158" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="159" spans="1:14">
       <c r="A159" t="s">
-        <v>429</v>
+        <v>395</v>
       </c>
       <c r="B159" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C159" t="s">
         <v>4</v>
@@ -8741,7 +9092,7 @@
         <v>2016</v>
       </c>
       <c r="E159" t="s">
-        <v>429</v>
+        <v>395</v>
       </c>
       <c r="F159">
         <v>1904</v>
@@ -8756,21 +9107,24 @@
         <v>4</v>
       </c>
       <c r="J159" t="s">
-        <v>243</v>
+        <v>577</v>
       </c>
       <c r="L159" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="160" spans="1:13">
+      <c r="N159" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="160" spans="1:14">
       <c r="A160" t="s">
-        <v>430</v>
+        <v>396</v>
       </c>
       <c r="B160" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C160" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D160">
         <v>1922</v>
@@ -8791,21 +9145,24 @@
         <v>4</v>
       </c>
       <c r="J160" t="s">
-        <v>431</v>
+        <v>577</v>
       </c>
       <c r="L160" t="s">
         <v>4</v>
       </c>
       <c r="M160" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="161" spans="1:13">
+        <v>397</v>
+      </c>
+      <c r="N160" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="161" spans="1:14">
       <c r="A161" s="1" t="s">
-        <v>332</v>
+        <v>303</v>
       </c>
       <c r="B161" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C161" t="s">
         <v>4</v>
@@ -8814,13 +9171,13 @@
         <v>2016</v>
       </c>
       <c r="E161" t="s">
-        <v>332</v>
+        <v>303</v>
       </c>
       <c r="F161">
         <v>1943</v>
       </c>
       <c r="G161" t="s">
-        <v>433</v>
+        <v>398</v>
       </c>
       <c r="H161" t="s">
         <v>4</v>
@@ -8829,24 +9186,27 @@
         <v>4</v>
       </c>
       <c r="J161" t="s">
-        <v>434</v>
+        <v>577</v>
       </c>
       <c r="L161" t="s">
         <v>4</v>
       </c>
       <c r="M161" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="162" spans="1:13">
+        <v>399</v>
+      </c>
+      <c r="N161" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="162" spans="1:14">
       <c r="A162" t="s">
-        <v>436</v>
+        <v>400</v>
       </c>
       <c r="B162" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C162" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D162">
         <v>1987</v>
@@ -8867,21 +9227,24 @@
         <v>4</v>
       </c>
       <c r="J162" t="s">
-        <v>437</v>
+        <v>577</v>
       </c>
       <c r="L162" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="163" spans="1:13">
+      <c r="N162" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="163" spans="1:14">
       <c r="A163" t="s">
-        <v>438</v>
+        <v>401</v>
       </c>
       <c r="B163" t="s">
-        <v>149</v>
+        <v>130</v>
       </c>
       <c r="C163" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="D163">
         <v>1958</v>
@@ -8896,30 +9259,33 @@
         <v>86.67</v>
       </c>
       <c r="H163" t="s">
-        <v>581</v>
+        <v>538</v>
       </c>
       <c r="I163">
         <v>1958</v>
       </c>
       <c r="J163" t="s">
-        <v>439</v>
+        <v>577</v>
       </c>
       <c r="L163" t="s">
         <v>4</v>
       </c>
       <c r="M163" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="164" spans="1:13">
+        <v>402</v>
+      </c>
+      <c r="N163" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="164" spans="1:14">
       <c r="A164" t="s">
-        <v>441</v>
+        <v>403</v>
       </c>
       <c r="B164" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C164" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="D164">
         <v>1946</v>
@@ -8940,24 +9306,27 @@
         <v>4</v>
       </c>
       <c r="J164" t="s">
-        <v>439</v>
+        <v>577</v>
       </c>
       <c r="L164" t="s">
         <v>4</v>
       </c>
       <c r="M164" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="165" spans="1:13">
+        <v>404</v>
+      </c>
+      <c r="N164" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="165" spans="1:14">
       <c r="A165" s="1" t="s">
-        <v>443</v>
+        <v>405</v>
       </c>
       <c r="B165" t="s">
-        <v>388</v>
+        <v>357</v>
       </c>
       <c r="C165" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D165">
         <v>1947</v>
@@ -8978,24 +9347,27 @@
         <v>4</v>
       </c>
       <c r="J165" t="s">
-        <v>439</v>
+        <v>577</v>
       </c>
       <c r="L165" t="s">
         <v>4</v>
       </c>
       <c r="M165" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="166" spans="1:13">
+        <v>406</v>
+      </c>
+      <c r="N165" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="166" spans="1:14">
       <c r="A166" t="s">
-        <v>445</v>
+        <v>407</v>
       </c>
       <c r="B166" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C166" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D166">
         <v>1944</v>
@@ -9016,18 +9388,21 @@
         <v>4</v>
       </c>
       <c r="J166" t="s">
-        <v>439</v>
+        <v>577</v>
       </c>
       <c r="L166" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="167" spans="1:13">
+      <c r="N166" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="167" spans="1:14">
       <c r="A167" t="s">
-        <v>446</v>
+        <v>408</v>
       </c>
       <c r="B167" t="s">
-        <v>447</v>
+        <v>409</v>
       </c>
       <c r="C167" t="s">
         <v>4</v>
@@ -9036,13 +9411,13 @@
         <v>2016</v>
       </c>
       <c r="E167" t="s">
-        <v>446</v>
+        <v>408</v>
       </c>
       <c r="F167">
         <v>1944</v>
       </c>
       <c r="G167" t="s">
-        <v>448</v>
+        <v>410</v>
       </c>
       <c r="H167" t="s">
         <v>4</v>
@@ -9051,7 +9426,7 @@
         <v>4</v>
       </c>
       <c r="J167" t="s">
-        <v>449</v>
+        <v>411</v>
       </c>
       <c r="K167">
         <v>2009</v>
@@ -9060,15 +9435,18 @@
         <v>4</v>
       </c>
       <c r="M167" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="168" spans="1:13">
+        <v>412</v>
+      </c>
+      <c r="N167" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="168" spans="1:14">
       <c r="A168" t="s">
-        <v>451</v>
+        <v>413</v>
       </c>
       <c r="B168" t="s">
-        <v>267</v>
+        <v>238</v>
       </c>
       <c r="C168" t="s">
         <v>4</v>
@@ -9077,7 +9455,7 @@
         <v>2016</v>
       </c>
       <c r="E168" t="s">
-        <v>451</v>
+        <v>413</v>
       </c>
       <c r="F168">
         <v>1945</v>
@@ -9092,7 +9470,7 @@
         <v>4</v>
       </c>
       <c r="J168" t="s">
-        <v>449</v>
+        <v>411</v>
       </c>
       <c r="K168">
         <v>2013</v>
@@ -9101,15 +9479,18 @@
         <v>4</v>
       </c>
       <c r="M168" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="169" spans="1:13">
+        <v>414</v>
+      </c>
+      <c r="N168" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="169" spans="1:14">
       <c r="A169" t="s">
-        <v>453</v>
+        <v>415</v>
       </c>
       <c r="B169" t="s">
-        <v>267</v>
+        <v>238</v>
       </c>
       <c r="C169" t="s">
         <v>4</v>
@@ -9118,7 +9499,7 @@
         <v>2016</v>
       </c>
       <c r="E169" t="s">
-        <v>453</v>
+        <v>415</v>
       </c>
       <c r="F169">
         <v>1945</v>
@@ -9133,7 +9514,7 @@
         <v>4</v>
       </c>
       <c r="J169" t="s">
-        <v>449</v>
+        <v>411</v>
       </c>
       <c r="K169">
         <v>2013</v>
@@ -9142,15 +9523,18 @@
         <v>4</v>
       </c>
       <c r="M169" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="170" spans="1:13">
+        <v>416</v>
+      </c>
+      <c r="N169" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="170" spans="1:14">
       <c r="A170" t="s">
-        <v>455</v>
+        <v>417</v>
       </c>
       <c r="B170" t="s">
-        <v>219</v>
+        <v>190</v>
       </c>
       <c r="C170" t="s">
         <v>4</v>
@@ -9159,7 +9543,7 @@
         <v>2016</v>
       </c>
       <c r="E170" t="s">
-        <v>455</v>
+        <v>417</v>
       </c>
       <c r="F170">
         <v>1944</v>
@@ -9174,7 +9558,7 @@
         <v>4</v>
       </c>
       <c r="J170" t="s">
-        <v>449</v>
+        <v>411</v>
       </c>
       <c r="K170">
         <v>2004</v>
@@ -9183,15 +9567,18 @@
         <v>4</v>
       </c>
       <c r="M170" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="171" spans="1:13">
+        <v>418</v>
+      </c>
+      <c r="N170" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="171" spans="1:14">
       <c r="A171" t="s">
-        <v>457</v>
+        <v>419</v>
       </c>
       <c r="B171" t="s">
-        <v>458</v>
+        <v>420</v>
       </c>
       <c r="C171" t="s">
         <v>4</v>
@@ -9200,7 +9587,7 @@
         <v>2016</v>
       </c>
       <c r="E171" t="s">
-        <v>457</v>
+        <v>419</v>
       </c>
       <c r="F171">
         <v>1944</v>
@@ -9215,7 +9602,7 @@
         <v>4</v>
       </c>
       <c r="J171" t="s">
-        <v>449</v>
+        <v>411</v>
       </c>
       <c r="K171">
         <v>2004</v>
@@ -9224,15 +9611,18 @@
         <v>4</v>
       </c>
       <c r="M171" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="172" spans="1:13">
+        <v>421</v>
+      </c>
+      <c r="N171" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="172" spans="1:14">
       <c r="A172" t="s">
-        <v>460</v>
+        <v>422</v>
       </c>
       <c r="B172" t="s">
-        <v>240</v>
+        <v>211</v>
       </c>
       <c r="C172" t="s">
         <v>4</v>
@@ -9241,22 +9631,22 @@
         <v>2016</v>
       </c>
       <c r="E172" t="s">
-        <v>461</v>
+        <v>423</v>
       </c>
       <c r="F172">
         <v>1944</v>
       </c>
       <c r="G172" t="s">
-        <v>462</v>
+        <v>424</v>
       </c>
       <c r="H172" t="s">
-        <v>608</v>
+        <v>564</v>
       </c>
       <c r="I172">
         <v>1992</v>
       </c>
       <c r="J172" t="s">
-        <v>449</v>
+        <v>411</v>
       </c>
       <c r="K172">
         <v>2013</v>
@@ -9265,15 +9655,18 @@
         <v>4</v>
       </c>
       <c r="M172" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="173" spans="1:13">
+        <v>425</v>
+      </c>
+      <c r="N172" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="173" spans="1:14">
       <c r="A173" t="s">
-        <v>464</v>
+        <v>426</v>
       </c>
       <c r="B173" t="s">
-        <v>219</v>
+        <v>190</v>
       </c>
       <c r="C173" t="s">
         <v>4</v>
@@ -9282,7 +9675,7 @@
         <v>2016</v>
       </c>
       <c r="E173" t="s">
-        <v>464</v>
+        <v>426</v>
       </c>
       <c r="F173">
         <v>1941</v>
@@ -9297,7 +9690,7 @@
         <v>4</v>
       </c>
       <c r="J173" t="s">
-        <v>449</v>
+        <v>411</v>
       </c>
       <c r="K173">
         <v>2004</v>
@@ -9306,18 +9699,21 @@
         <v>4</v>
       </c>
       <c r="M173" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="174" spans="1:13">
+        <v>427</v>
+      </c>
+      <c r="N173" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="174" spans="1:14">
       <c r="A174" t="s">
-        <v>466</v>
+        <v>428</v>
       </c>
       <c r="B174" t="s">
-        <v>348</v>
+        <v>319</v>
       </c>
       <c r="C174" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D174">
         <v>1947</v>
@@ -9332,106 +9728,115 @@
         <v>33</v>
       </c>
       <c r="H174" t="s">
-        <v>609</v>
+        <v>565</v>
       </c>
       <c r="I174">
         <v>1945</v>
       </c>
       <c r="J174" t="s">
-        <v>467</v>
+        <v>577</v>
       </c>
       <c r="L174" t="s">
         <v>4</v>
       </c>
       <c r="M174" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="175" spans="1:13">
+        <v>429</v>
+      </c>
+      <c r="N174" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="175" spans="1:14">
       <c r="A175" s="1" t="s">
-        <v>469</v>
+        <v>430</v>
       </c>
       <c r="B175" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="C175" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="D175">
         <v>1958</v>
       </c>
       <c r="E175" t="s">
-        <v>470</v>
+        <v>431</v>
       </c>
       <c r="F175">
         <v>1937</v>
       </c>
       <c r="G175" t="s">
-        <v>471</v>
+        <v>432</v>
       </c>
       <c r="H175" t="s">
-        <v>610</v>
+        <v>566</v>
       </c>
       <c r="I175">
         <v>1958</v>
       </c>
       <c r="J175" t="s">
-        <v>467</v>
+        <v>577</v>
       </c>
       <c r="L175" t="s">
         <v>4</v>
       </c>
       <c r="M175" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="176" spans="1:13">
+        <v>433</v>
+      </c>
+      <c r="N175" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="176" spans="1:14">
       <c r="A176" s="1" t="s">
-        <v>470</v>
+        <v>431</v>
       </c>
       <c r="B176" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="C176" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="D176">
         <v>1992</v>
       </c>
       <c r="E176" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="F176">
         <v>1958</v>
       </c>
       <c r="G176" t="s">
-        <v>471</v>
+        <v>432</v>
       </c>
       <c r="H176" t="s">
-        <v>611</v>
+        <v>567</v>
       </c>
       <c r="I176">
         <v>1958</v>
       </c>
       <c r="J176" t="s">
-        <v>467</v>
+        <v>577</v>
       </c>
       <c r="L176" t="s">
         <v>4</v>
       </c>
       <c r="M176" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="177" spans="1:13">
+        <v>434</v>
+      </c>
+      <c r="N176" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="177" spans="1:14">
       <c r="A177" t="s">
-        <v>474</v>
+        <v>435</v>
       </c>
       <c r="B177" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C177" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D177">
         <v>1958</v>
@@ -9452,24 +9857,27 @@
         <v>4</v>
       </c>
       <c r="J177" t="s">
-        <v>467</v>
+        <v>577</v>
       </c>
       <c r="L177" t="s">
         <v>4</v>
       </c>
       <c r="M177" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="178" spans="1:13">
+        <v>436</v>
+      </c>
+      <c r="N177" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="178" spans="1:14">
       <c r="A178" t="s">
-        <v>476</v>
+        <v>437</v>
       </c>
       <c r="B178" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C178" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D178">
         <v>1970</v>
@@ -9490,18 +9898,21 @@
         <v>4</v>
       </c>
       <c r="J178" t="s">
-        <v>467</v>
+        <v>577</v>
       </c>
       <c r="L178" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="179" spans="1:13">
+      <c r="N178" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="179" spans="1:14">
       <c r="A179" t="s">
-        <v>477</v>
+        <v>438</v>
       </c>
       <c r="B179" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C179" t="s">
         <v>4</v>
@@ -9510,7 +9921,7 @@
         <v>2016</v>
       </c>
       <c r="E179" t="s">
-        <v>477</v>
+        <v>438</v>
       </c>
       <c r="F179">
         <v>1973</v>
@@ -9525,18 +9936,21 @@
         <v>4</v>
       </c>
       <c r="J179" t="s">
-        <v>478</v>
+        <v>577</v>
       </c>
       <c r="L179" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="180" spans="1:13">
+      <c r="N179" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="180" spans="1:14">
       <c r="A180" s="1" t="s">
-        <v>479</v>
+        <v>439</v>
       </c>
       <c r="B180" t="s">
-        <v>480</v>
+        <v>440</v>
       </c>
       <c r="C180" t="s">
         <v>4</v>
@@ -9545,7 +9959,7 @@
         <v>2016</v>
       </c>
       <c r="E180" t="s">
-        <v>479</v>
+        <v>439</v>
       </c>
       <c r="F180">
         <v>1944</v>
@@ -9560,7 +9974,7 @@
         <v>4</v>
       </c>
       <c r="J180" t="s">
-        <v>481</v>
+        <v>441</v>
       </c>
       <c r="K180">
         <v>2008</v>
@@ -9569,15 +9983,18 @@
         <v>4</v>
       </c>
       <c r="M180" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="181" spans="1:13">
+        <v>442</v>
+      </c>
+      <c r="N180" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="181" spans="1:14">
       <c r="A181" t="s">
-        <v>483</v>
+        <v>443</v>
       </c>
       <c r="B181" t="s">
-        <v>326</v>
+        <v>297</v>
       </c>
       <c r="C181" t="s">
         <v>4</v>
@@ -9586,7 +10003,7 @@
         <v>2016</v>
       </c>
       <c r="E181" t="s">
-        <v>483</v>
+        <v>443</v>
       </c>
       <c r="F181">
         <v>1944</v>
@@ -9601,7 +10018,7 @@
         <v>4</v>
       </c>
       <c r="J181" t="s">
-        <v>481</v>
+        <v>441</v>
       </c>
       <c r="K181">
         <v>2005</v>
@@ -9610,15 +10027,18 @@
         <v>4</v>
       </c>
       <c r="M181" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="182" spans="1:13">
+        <v>444</v>
+      </c>
+      <c r="N181" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="182" spans="1:14">
       <c r="A182" s="1" t="s">
-        <v>485</v>
+        <v>445</v>
       </c>
       <c r="B182" t="s">
-        <v>384</v>
+        <v>354</v>
       </c>
       <c r="C182" t="s">
         <v>4</v>
@@ -9627,13 +10047,13 @@
         <v>2016</v>
       </c>
       <c r="E182" t="s">
-        <v>485</v>
+        <v>445</v>
       </c>
       <c r="F182">
         <v>1944</v>
       </c>
       <c r="G182" t="s">
-        <v>586</v>
+        <v>543</v>
       </c>
       <c r="H182" t="s">
         <v>4</v>
@@ -9642,7 +10062,7 @@
         <v>4</v>
       </c>
       <c r="J182" t="s">
-        <v>481</v>
+        <v>441</v>
       </c>
       <c r="K182">
         <v>1990</v>
@@ -9651,15 +10071,18 @@
         <v>4</v>
       </c>
       <c r="M182" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="183" spans="1:13">
+        <v>446</v>
+      </c>
+      <c r="N182" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="183" spans="1:14">
       <c r="A183" s="1" t="s">
-        <v>487</v>
+        <v>447</v>
       </c>
       <c r="B183" t="s">
-        <v>488</v>
+        <v>448</v>
       </c>
       <c r="C183" t="s">
         <v>4</v>
@@ -9668,7 +10091,7 @@
         <v>2016</v>
       </c>
       <c r="E183" t="s">
-        <v>489</v>
+        <v>449</v>
       </c>
       <c r="F183">
         <v>1944</v>
@@ -9677,13 +10100,13 @@
         <v>50</v>
       </c>
       <c r="H183" t="s">
-        <v>612</v>
+        <v>568</v>
       </c>
       <c r="I183">
         <v>1953</v>
       </c>
       <c r="J183" t="s">
-        <v>481</v>
+        <v>441</v>
       </c>
       <c r="K183">
         <v>1990</v>
@@ -9692,15 +10115,18 @@
         <v>4</v>
       </c>
       <c r="M183" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="184" spans="1:13">
+        <v>450</v>
+      </c>
+      <c r="N183" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="184" spans="1:14">
       <c r="A184" t="s">
-        <v>491</v>
+        <v>451</v>
       </c>
       <c r="B184" t="s">
-        <v>232</v>
+        <v>203</v>
       </c>
       <c r="C184" t="s">
         <v>4</v>
@@ -9709,7 +10135,7 @@
         <v>2016</v>
       </c>
       <c r="E184" t="s">
-        <v>492</v>
+        <v>452</v>
       </c>
       <c r="F184">
         <v>1945</v>
@@ -9724,7 +10150,7 @@
         <v>4</v>
       </c>
       <c r="J184" t="s">
-        <v>481</v>
+        <v>441</v>
       </c>
       <c r="K184">
         <v>2005</v>
@@ -9733,18 +10159,21 @@
         <v>4</v>
       </c>
       <c r="M184" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="185" spans="1:13">
+        <v>453</v>
+      </c>
+      <c r="N184" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="185" spans="1:14">
       <c r="A185" s="1" t="s">
-        <v>494</v>
+        <v>454</v>
       </c>
       <c r="B185" t="s">
-        <v>495</v>
+        <v>455</v>
       </c>
       <c r="C185" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="D185" t="s">
         <v>4</v>
@@ -9765,7 +10194,7 @@
         <v>4</v>
       </c>
       <c r="J185" t="s">
-        <v>496</v>
+        <v>456</v>
       </c>
       <c r="K185">
         <v>2012</v>
@@ -9774,15 +10203,18 @@
         <v>4</v>
       </c>
       <c r="M185" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="186" spans="1:13">
+        <v>457</v>
+      </c>
+      <c r="N185" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="186" spans="1:14">
       <c r="A186" s="1" t="s">
-        <v>498</v>
+        <v>458</v>
       </c>
       <c r="B186" t="s">
-        <v>306</v>
+        <v>277</v>
       </c>
       <c r="C186" t="s">
         <v>4</v>
@@ -9791,7 +10223,7 @@
         <v>2016</v>
       </c>
       <c r="E186" t="s">
-        <v>498</v>
+        <v>458</v>
       </c>
       <c r="F186">
         <v>1945</v>
@@ -9806,7 +10238,7 @@
         <v>4</v>
       </c>
       <c r="J186" t="s">
-        <v>496</v>
+        <v>456</v>
       </c>
       <c r="K186">
         <v>2012</v>
@@ -9815,15 +10247,18 @@
         <v>4</v>
       </c>
       <c r="M186" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="187" spans="1:13">
+        <v>459</v>
+      </c>
+      <c r="N186" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="187" spans="1:14">
       <c r="A187" s="1" t="s">
-        <v>500</v>
+        <v>460</v>
       </c>
       <c r="B187" t="s">
-        <v>501</v>
+        <v>461</v>
       </c>
       <c r="C187" t="s">
         <v>4</v>
@@ -9832,7 +10267,7 @@
         <v>2016</v>
       </c>
       <c r="E187" t="s">
-        <v>502</v>
+        <v>462</v>
       </c>
       <c r="F187">
         <v>1944</v>
@@ -9841,13 +10276,13 @@
         <v>27.76</v>
       </c>
       <c r="H187" t="s">
-        <v>613</v>
+        <v>569</v>
       </c>
       <c r="I187">
         <v>1947</v>
       </c>
       <c r="J187" t="s">
-        <v>496</v>
+        <v>456</v>
       </c>
       <c r="K187">
         <v>2012</v>
@@ -9856,15 +10291,18 @@
         <v>4</v>
       </c>
       <c r="M187" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="188" spans="1:13">
+        <v>463</v>
+      </c>
+      <c r="N187" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="188" spans="1:14">
       <c r="A188" s="1" t="s">
-        <v>504</v>
+        <v>464</v>
       </c>
       <c r="B188" t="s">
-        <v>286</v>
+        <v>257</v>
       </c>
       <c r="C188" t="s">
         <v>4</v>
@@ -9873,13 +10311,13 @@
         <v>2016</v>
       </c>
       <c r="E188" t="s">
-        <v>504</v>
+        <v>464</v>
       </c>
       <c r="F188">
         <v>1944</v>
       </c>
       <c r="G188" t="s">
-        <v>505</v>
+        <v>465</v>
       </c>
       <c r="H188" t="s">
         <v>4</v>
@@ -9888,7 +10326,7 @@
         <v>4</v>
       </c>
       <c r="J188" t="s">
-        <v>506</v>
+        <v>466</v>
       </c>
       <c r="K188">
         <v>1960</v>
@@ -9897,15 +10335,18 @@
         <v>4</v>
       </c>
       <c r="M188" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="189" spans="1:13">
+        <v>467</v>
+      </c>
+      <c r="N188" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="189" spans="1:14">
       <c r="A189" t="s">
-        <v>508</v>
+        <v>468</v>
       </c>
       <c r="B189" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="C189" t="s">
         <v>4</v>
@@ -9914,7 +10355,7 @@
         <v>2016</v>
       </c>
       <c r="E189" t="s">
-        <v>508</v>
+        <v>468</v>
       </c>
       <c r="F189">
         <v>1944</v>
@@ -9929,7 +10370,7 @@
         <v>4</v>
       </c>
       <c r="J189" t="s">
-        <v>506</v>
+        <v>466</v>
       </c>
       <c r="K189">
         <v>1960</v>
@@ -9938,15 +10379,18 @@
         <v>4</v>
       </c>
       <c r="M189" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="190" spans="1:13">
+        <v>469</v>
+      </c>
+      <c r="N189" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="190" spans="1:14">
       <c r="A190" s="1" t="s">
-        <v>510</v>
+        <v>470</v>
       </c>
       <c r="B190" t="s">
-        <v>354</v>
+        <v>325</v>
       </c>
       <c r="C190" t="s">
         <v>4</v>
@@ -9955,7 +10399,7 @@
         <v>2016</v>
       </c>
       <c r="E190" t="s">
-        <v>511</v>
+        <v>471</v>
       </c>
       <c r="F190">
         <v>1944</v>
@@ -9964,13 +10408,13 @@
         <v>64</v>
       </c>
       <c r="H190" t="s">
-        <v>614</v>
+        <v>570</v>
       </c>
       <c r="I190">
         <v>1958</v>
       </c>
       <c r="J190" t="s">
-        <v>506</v>
+        <v>466</v>
       </c>
       <c r="K190">
         <v>1975</v>
@@ -9979,15 +10423,18 @@
         <v>4</v>
       </c>
       <c r="M190" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="191" spans="1:13">
+        <v>472</v>
+      </c>
+      <c r="N190" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="191" spans="1:14">
       <c r="A191" t="s">
-        <v>513</v>
+        <v>473</v>
       </c>
       <c r="B191" t="s">
-        <v>348</v>
+        <v>319</v>
       </c>
       <c r="C191" t="s">
         <v>4</v>
@@ -9996,13 +10443,13 @@
         <v>2016</v>
       </c>
       <c r="E191" t="s">
-        <v>513</v>
+        <v>473</v>
       </c>
       <c r="F191">
         <v>1944</v>
       </c>
       <c r="G191" t="s">
-        <v>514</v>
+        <v>474</v>
       </c>
       <c r="H191" t="s">
         <v>4</v>
@@ -10011,7 +10458,7 @@
         <v>4</v>
       </c>
       <c r="J191" t="s">
-        <v>506</v>
+        <v>466</v>
       </c>
       <c r="K191">
         <v>1960</v>
@@ -10020,15 +10467,18 @@
         <v>4</v>
       </c>
       <c r="M191" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="192" spans="1:13">
+        <v>475</v>
+      </c>
+      <c r="N191" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="192" spans="1:14">
       <c r="A192" t="s">
-        <v>516</v>
+        <v>476</v>
       </c>
       <c r="B192" t="s">
-        <v>354</v>
+        <v>325</v>
       </c>
       <c r="C192" t="s">
         <v>4</v>
@@ -10037,7 +10487,7 @@
         <v>2016</v>
       </c>
       <c r="E192" t="s">
-        <v>516</v>
+        <v>476</v>
       </c>
       <c r="G192">
         <v>64</v>
@@ -10049,7 +10499,7 @@
         <v>4</v>
       </c>
       <c r="J192" t="s">
-        <v>506</v>
+        <v>466</v>
       </c>
       <c r="K192">
         <v>1975</v>
@@ -10058,15 +10508,18 @@
         <v>4</v>
       </c>
       <c r="M192" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="193" spans="1:13">
+        <v>472</v>
+      </c>
+      <c r="N192" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="193" spans="1:14">
       <c r="A193" t="s">
-        <v>517</v>
+        <v>477</v>
       </c>
       <c r="B193" t="s">
-        <v>348</v>
+        <v>319</v>
       </c>
       <c r="C193" t="s">
         <v>4</v>
@@ -10090,7 +10543,7 @@
         <v>4</v>
       </c>
       <c r="J193" t="s">
-        <v>506</v>
+        <v>466</v>
       </c>
       <c r="K193">
         <v>2004</v>
@@ -10099,18 +10552,21 @@
         <v>4</v>
       </c>
       <c r="M193" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="194" spans="1:13">
+        <v>478</v>
+      </c>
+      <c r="N193" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="194" spans="1:14">
       <c r="A194" t="s">
-        <v>519</v>
+        <v>479</v>
       </c>
       <c r="B194" t="s">
-        <v>520</v>
+        <v>480</v>
       </c>
       <c r="C194" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="D194">
         <v>1946</v>
@@ -10125,27 +10581,33 @@
         <v>42</v>
       </c>
       <c r="H194" t="s">
-        <v>615</v>
+        <v>571</v>
       </c>
       <c r="I194">
         <v>1946</v>
       </c>
+      <c r="J194" t="s">
+        <v>577</v>
+      </c>
       <c r="L194" t="s">
         <v>4</v>
       </c>
       <c r="M194" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="195" spans="1:13">
+        <v>481</v>
+      </c>
+      <c r="N194" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="195" spans="1:14">
       <c r="A195" t="s">
-        <v>522</v>
+        <v>482</v>
       </c>
       <c r="B195" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="C195" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D195">
         <v>1849</v>
@@ -10159,19 +10621,25 @@
       <c r="I195" t="s">
         <v>4</v>
       </c>
+      <c r="J195" t="s">
+        <v>577</v>
+      </c>
       <c r="L195" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="196" spans="1:13">
+      <c r="N195" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="196" spans="1:14">
       <c r="A196" t="s">
-        <v>523</v>
+        <v>483</v>
       </c>
       <c r="B196" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C196" t="s">
-        <v>524</v>
+        <v>484</v>
       </c>
       <c r="D196">
         <v>1967</v>
@@ -10186,24 +10654,30 @@
         <v>6</v>
       </c>
       <c r="H196" t="s">
-        <v>582</v>
+        <v>539</v>
       </c>
       <c r="I196">
         <v>1945</v>
       </c>
+      <c r="J196" t="s">
+        <v>577</v>
+      </c>
       <c r="L196" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="197" spans="1:13">
+      <c r="N196" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="197" spans="1:14">
       <c r="A197" t="s">
-        <v>525</v>
+        <v>485</v>
       </c>
       <c r="B197" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C197" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="D197">
         <v>1997</v>
@@ -10215,30 +10689,36 @@
         <v>1944</v>
       </c>
       <c r="G197" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H197" t="s">
-        <v>595</v>
+        <v>551</v>
       </c>
       <c r="I197">
         <v>1997</v>
       </c>
+      <c r="J197" t="s">
+        <v>577</v>
+      </c>
       <c r="L197" t="s">
         <v>4</v>
       </c>
       <c r="M197" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="198" spans="1:13">
+        <v>20</v>
+      </c>
+      <c r="N197" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="198" spans="1:14">
       <c r="A198" t="s">
-        <v>526</v>
+        <v>486</v>
       </c>
       <c r="B198" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C198" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D198">
         <v>1946</v>
@@ -10255,25 +10735,31 @@
       <c r="I198" t="s">
         <v>4</v>
       </c>
+      <c r="J198" t="s">
+        <v>577</v>
+      </c>
       <c r="L198" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="199" spans="1:13">
+      <c r="N198" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="199" spans="1:14">
       <c r="A199" t="s">
-        <v>527</v>
+        <v>487</v>
       </c>
       <c r="B199" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C199" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="D199">
         <v>1992</v>
       </c>
       <c r="E199" t="s">
-        <v>528</v>
+        <v>488</v>
       </c>
       <c r="F199">
         <v>1824</v>
@@ -10282,24 +10768,30 @@
         <v>4</v>
       </c>
       <c r="H199" t="s">
-        <v>583</v>
+        <v>540</v>
       </c>
       <c r="I199">
         <v>1992</v>
       </c>
+      <c r="J199" t="s">
+        <v>577</v>
+      </c>
       <c r="L199" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="200" spans="1:13">
+      <c r="N199" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="200" spans="1:14">
       <c r="A200" t="s">
-        <v>529</v>
+        <v>489</v>
       </c>
       <c r="B200" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C200" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E200" t="s">
         <v>4</v>
@@ -10313,19 +10805,25 @@
       <c r="I200" t="s">
         <v>4</v>
       </c>
+      <c r="J200" t="s">
+        <v>577</v>
+      </c>
       <c r="L200" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="201" spans="1:13">
+      <c r="N200" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="201" spans="1:14">
       <c r="A201" t="s">
-        <v>530</v>
+        <v>490</v>
       </c>
       <c r="B201" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C201" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D201">
         <v>1950</v>
@@ -10342,19 +10840,25 @@
       <c r="I201" t="s">
         <v>4</v>
       </c>
+      <c r="J201" t="s">
+        <v>577</v>
+      </c>
       <c r="L201" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="202" spans="1:13">
+      <c r="N201" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="202" spans="1:14">
       <c r="A202" t="s">
-        <v>531</v>
+        <v>491</v>
       </c>
       <c r="B202" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C202" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E202" t="s">
         <v>4</v>
@@ -10368,28 +10872,34 @@
       <c r="I202" t="s">
         <v>4</v>
       </c>
+      <c r="J202" t="s">
+        <v>577</v>
+      </c>
       <c r="L202" t="s">
         <v>4</v>
       </c>
       <c r="M202" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="203" spans="1:13">
+        <v>492</v>
+      </c>
+      <c r="N202" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="203" spans="1:14">
       <c r="A203" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="B203" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C203" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D203">
         <v>2011</v>
       </c>
       <c r="E203" t="s">
-        <v>533</v>
+        <v>493</v>
       </c>
       <c r="F203">
         <v>1944</v>
@@ -10398,27 +10908,33 @@
         <v>4</v>
       </c>
       <c r="H203" t="s">
-        <v>584</v>
+        <v>541</v>
       </c>
       <c r="I203">
         <v>2013</v>
       </c>
+      <c r="J203" t="s">
+        <v>577</v>
+      </c>
       <c r="L203" t="s">
-        <v>534</v>
+        <v>494</v>
       </c>
       <c r="M203" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="204" spans="1:13">
+        <v>89</v>
+      </c>
+      <c r="N203" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="204" spans="1:14">
       <c r="A204" t="s">
-        <v>535</v>
+        <v>495</v>
       </c>
       <c r="B204" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C204" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D204">
         <v>1947</v>
@@ -10435,19 +10951,25 @@
       <c r="I204" t="s">
         <v>4</v>
       </c>
+      <c r="J204" t="s">
+        <v>577</v>
+      </c>
       <c r="L204" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="205" spans="1:13">
+      <c r="N204" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="205" spans="1:14">
       <c r="A205" t="s">
-        <v>536</v>
+        <v>496</v>
       </c>
       <c r="B205" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C205" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="D205">
         <v>1948</v>
@@ -10464,19 +10986,25 @@
       <c r="I205" t="s">
         <v>4</v>
       </c>
+      <c r="J205" t="s">
+        <v>577</v>
+      </c>
       <c r="L205" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="206" spans="1:13">
+      <c r="N205" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="206" spans="1:14">
       <c r="A206" t="s">
-        <v>356</v>
+        <v>327</v>
       </c>
       <c r="B206" t="s">
-        <v>537</v>
+        <v>497</v>
       </c>
       <c r="C206" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="D206">
         <v>1993</v>
@@ -10491,24 +11019,30 @@
         <v>4</v>
       </c>
       <c r="H206" t="s">
-        <v>585</v>
+        <v>542</v>
       </c>
       <c r="I206">
         <v>1993</v>
       </c>
+      <c r="J206" t="s">
+        <v>577</v>
+      </c>
       <c r="L206" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="207" spans="1:13">
+      <c r="N206" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="207" spans="1:14">
       <c r="A207" t="s">
-        <v>538</v>
+        <v>498</v>
       </c>
       <c r="B207" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C207" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D207" t="s">
         <v>4</v>
@@ -10525,25 +11059,31 @@
       <c r="I207" t="s">
         <v>4</v>
       </c>
+      <c r="J207" t="s">
+        <v>577</v>
+      </c>
       <c r="L207" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="208" spans="1:13">
+      <c r="N207" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="208" spans="1:14">
       <c r="A208" t="s">
-        <v>539</v>
+        <v>499</v>
       </c>
       <c r="B208" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C208" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D208">
         <v>2008</v>
       </c>
       <c r="E208" t="s">
-        <v>540</v>
+        <v>500</v>
       </c>
       <c r="F208">
         <v>1945</v>
@@ -10552,16 +11092,22 @@
         <v>4</v>
       </c>
       <c r="H208" t="s">
-        <v>616</v>
+        <v>572</v>
       </c>
       <c r="I208">
         <v>1994</v>
       </c>
+      <c r="J208" t="s">
+        <v>577</v>
+      </c>
       <c r="L208" t="s">
         <v>4</v>
       </c>
       <c r="M208" t="s">
-        <v>541</v>
+        <v>501</v>
+      </c>
+      <c r="N208" t="s">
+        <v>577</v>
       </c>
     </row>
   </sheetData>
